--- a/Filtered_By_Region/Region XII/Region XII_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_ELECTRIFICATION.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR195"/>
+  <dimension ref="A1:AS195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +659,11 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -707,7 +713,6 @@
       <c r="K2" t="n">
         <v>220860.79</v>
       </c>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -716,17 +721,6 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
@@ -763,14 +757,12 @@
       <c r="AK2" t="n">
         <v>0</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="n">
         <v>1</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -835,7 +827,6 @@
       <c r="K3" t="n">
         <v>156384.76</v>
       </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -844,17 +835,6 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
@@ -891,14 +871,12 @@
       <c r="AK3" t="n">
         <v>0</v>
       </c>
-      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="n">
         <v>1</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -963,7 +941,6 @@
       <c r="K4" t="n">
         <v>222512.36</v>
       </c>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -972,17 +949,6 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
@@ -1019,14 +985,12 @@
       <c r="AK4" t="n">
         <v>0</v>
       </c>
-      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="n">
         <v>1</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1091,7 +1055,6 @@
       <c r="K5" t="n">
         <v>494116.35</v>
       </c>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1100,17 +1063,6 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
@@ -1147,14 +1099,12 @@
       <c r="AK5" t="n">
         <v>0</v>
       </c>
-      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="n">
         <v>1</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1219,7 +1169,6 @@
       <c r="K6" t="n">
         <v>217391.63</v>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1228,17 +1177,6 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
@@ -1275,14 +1213,12 @@
       <c r="AK6" t="n">
         <v>0</v>
       </c>
-      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="n">
         <v>1</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1347,7 +1283,6 @@
       <c r="K7" t="n">
         <v>178926.34</v>
       </c>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1356,17 +1291,6 @@
       <c r="N7" t="n">
         <v>1</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
@@ -1403,14 +1327,12 @@
       <c r="AK7" t="n">
         <v>0</v>
       </c>
-      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="n">
         <v>1</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1475,7 +1397,6 @@
       <c r="K8" t="n">
         <v>217649.87</v>
       </c>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1484,17 +1405,6 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
@@ -1531,14 +1441,12 @@
       <c r="AK8" t="n">
         <v>0</v>
       </c>
-      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="n">
         <v>1</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1603,7 +1511,6 @@
       <c r="K9" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1612,17 +1519,6 @@
       <c r="N9" t="n">
         <v>1</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
@@ -1659,14 +1555,12 @@
       <c r="AK9" t="n">
         <v>0</v>
       </c>
-      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="n">
         <v>1</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1731,7 +1625,6 @@
       <c r="K10" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1740,17 +1633,6 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
@@ -1787,14 +1669,12 @@
       <c r="AK10" t="n">
         <v>0</v>
       </c>
-      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="n">
         <v>1</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1859,7 +1739,6 @@
       <c r="K11" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1868,17 +1747,6 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
@@ -1915,14 +1783,12 @@
       <c r="AK11" t="n">
         <v>0</v>
       </c>
-      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="n">
         <v>1</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1987,7 +1853,6 @@
       <c r="K12" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1996,17 +1861,6 @@
       <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
@@ -2043,14 +1897,12 @@
       <c r="AK12" t="n">
         <v>0</v>
       </c>
-      <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2115,7 +1967,6 @@
       <c r="K13" t="n">
         <v>271936.64</v>
       </c>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2124,17 +1975,6 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
@@ -2171,14 +2011,12 @@
       <c r="AK13" t="n">
         <v>0</v>
       </c>
-      <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="n">
         <v>1</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
-      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2243,7 +2081,6 @@
       <c r="K14" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2252,17 +2089,6 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
@@ -2299,14 +2125,12 @@
       <c r="AK14" t="n">
         <v>0</v>
       </c>
-      <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="n">
         <v>1</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2371,7 +2195,6 @@
       <c r="K15" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2380,17 +2203,6 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
@@ -2427,14 +2239,12 @@
       <c r="AK15" t="n">
         <v>0</v>
       </c>
-      <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="n">
         <v>1</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2499,7 +2309,6 @@
       <c r="K16" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2508,17 +2317,6 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
@@ -2555,14 +2353,12 @@
       <c r="AK16" t="n">
         <v>0</v>
       </c>
-      <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="n">
         <v>1</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2627,7 +2423,6 @@
       <c r="K17" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2636,17 +2431,6 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
@@ -2683,14 +2467,12 @@
       <c r="AK17" t="n">
         <v>0</v>
       </c>
-      <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="n">
         <v>1</v>
       </c>
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2755,7 +2537,6 @@
       <c r="K18" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2764,17 +2545,6 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
@@ -2811,14 +2581,12 @@
       <c r="AK18" t="n">
         <v>0</v>
       </c>
-      <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="n">
         <v>1</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2883,7 +2651,6 @@
       <c r="K19" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2892,17 +2659,6 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
@@ -2939,14 +2695,12 @@
       <c r="AK19" t="n">
         <v>0</v>
       </c>
-      <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="n">
         <v>1</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3011,7 +2765,6 @@
       <c r="K20" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3020,17 +2773,6 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
@@ -3067,14 +2809,12 @@
       <c r="AK20" t="n">
         <v>0</v>
       </c>
-      <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="n">
         <v>1</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3139,7 +2879,6 @@
       <c r="K21" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3148,17 +2887,6 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
@@ -3195,14 +2923,12 @@
       <c r="AK21" t="n">
         <v>0</v>
       </c>
-      <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="n">
         <v>1</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3267,7 +2993,6 @@
       <c r="K22" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3276,17 +3001,6 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
@@ -3323,14 +3037,12 @@
       <c r="AK22" t="n">
         <v>0</v>
       </c>
-      <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="n">
         <v>1</v>
       </c>
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3395,7 +3107,6 @@
       <c r="K23" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3404,17 +3115,6 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
@@ -3451,14 +3151,12 @@
       <c r="AK23" t="n">
         <v>0</v>
       </c>
-      <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="n">
         <v>1</v>
       </c>
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3523,7 +3221,6 @@
       <c r="K24" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3532,17 +3229,6 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
@@ -3579,14 +3265,12 @@
       <c r="AK24" t="n">
         <v>0</v>
       </c>
-      <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="n">
         <v>1</v>
       </c>
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3651,7 +3335,6 @@
       <c r="K25" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3660,17 +3343,6 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
@@ -3707,14 +3379,12 @@
       <c r="AK25" t="n">
         <v>0</v>
       </c>
-      <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="n">
         <v>1</v>
       </c>
       <c r="AN25" t="n">
         <v>0</v>
       </c>
-      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3779,7 +3449,6 @@
       <c r="K26" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3788,17 +3457,6 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
@@ -3835,14 +3493,12 @@
       <c r="AK26" t="n">
         <v>0</v>
       </c>
-      <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="n">
         <v>1</v>
       </c>
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3907,7 +3563,6 @@
       <c r="K27" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3916,17 +3571,6 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
@@ -3963,14 +3607,12 @@
       <c r="AK27" t="n">
         <v>0</v>
       </c>
-      <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="n">
         <v>1</v>
       </c>
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4035,7 +3677,6 @@
       <c r="K28" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4044,17 +3685,6 @@
       <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
@@ -4091,14 +3721,12 @@
       <c r="AK28" t="n">
         <v>0</v>
       </c>
-      <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="n">
         <v>1</v>
       </c>
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4163,7 +3791,6 @@
       <c r="K29" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4172,17 +3799,6 @@
       <c r="N29" t="n">
         <v>1</v>
       </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
@@ -4219,14 +3835,12 @@
       <c r="AK29" t="n">
         <v>0</v>
       </c>
-      <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="n">
         <v>1</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4291,7 +3905,6 @@
       <c r="K30" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4300,17 +3913,6 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
@@ -4347,14 +3949,12 @@
       <c r="AK30" t="n">
         <v>0</v>
       </c>
-      <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="n">
         <v>1</v>
       </c>
       <c r="AN30" t="n">
         <v>0</v>
       </c>
-      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4419,7 +4019,6 @@
       <c r="K31" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4428,17 +4027,6 @@
       <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
@@ -4475,14 +4063,12 @@
       <c r="AK31" t="n">
         <v>0</v>
       </c>
-      <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="n">
         <v>1</v>
       </c>
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4547,7 +4133,6 @@
       <c r="K32" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4556,17 +4141,6 @@
       <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
@@ -4603,14 +4177,12 @@
       <c r="AK32" t="n">
         <v>0</v>
       </c>
-      <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="n">
         <v>1</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4675,7 +4247,6 @@
       <c r="K33" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4684,17 +4255,6 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
@@ -4731,14 +4291,12 @@
       <c r="AK33" t="n">
         <v>0</v>
       </c>
-      <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="n">
         <v>1</v>
       </c>
       <c r="AN33" t="n">
         <v>0</v>
       </c>
-      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4803,7 +4361,6 @@
       <c r="K34" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4812,17 +4369,6 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
@@ -4859,14 +4405,12 @@
       <c r="AK34" t="n">
         <v>0</v>
       </c>
-      <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="n">
         <v>1</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
       </c>
-      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4931,7 +4475,6 @@
       <c r="K35" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4940,17 +4483,6 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
@@ -4987,14 +4519,12 @@
       <c r="AK35" t="n">
         <v>0</v>
       </c>
-      <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="n">
         <v>1</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5059,7 +4589,6 @@
       <c r="K36" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5068,17 +4597,6 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
@@ -5115,14 +4633,12 @@
       <c r="AK36" t="n">
         <v>0</v>
       </c>
-      <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="n">
         <v>1</v>
       </c>
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5187,7 +4703,6 @@
       <c r="K37" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5196,17 +4711,6 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
@@ -5243,14 +4747,12 @@
       <c r="AK37" t="n">
         <v>0</v>
       </c>
-      <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="n">
         <v>1</v>
       </c>
       <c r="AN37" t="n">
         <v>0</v>
       </c>
-      <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5315,7 +4817,6 @@
       <c r="K38" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5324,17 +4825,6 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
@@ -5371,14 +4861,12 @@
       <c r="AK38" t="n">
         <v>0</v>
       </c>
-      <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="n">
         <v>1</v>
       </c>
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5443,7 +4931,6 @@
       <c r="K39" t="n">
         <v>200221.98</v>
       </c>
-      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5452,17 +4939,6 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
@@ -5499,14 +4975,12 @@
       <c r="AK39" t="n">
         <v>0</v>
       </c>
-      <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="n">
         <v>1</v>
       </c>
       <c r="AN39" t="n">
         <v>0</v>
       </c>
-      <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5571,7 +5045,6 @@
       <c r="K40" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5580,17 +5053,6 @@
       <c r="N40" t="n">
         <v>1</v>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
@@ -5627,14 +5089,12 @@
       <c r="AK40" t="n">
         <v>0</v>
       </c>
-      <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="n">
         <v>1</v>
       </c>
       <c r="AN40" t="n">
         <v>0</v>
       </c>
-      <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5699,7 +5159,6 @@
       <c r="K41" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5708,17 +5167,6 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
@@ -5755,14 +5203,12 @@
       <c r="AK41" t="n">
         <v>0</v>
       </c>
-      <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="n">
         <v>1</v>
       </c>
       <c r="AN41" t="n">
         <v>0</v>
       </c>
-      <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5827,7 +5273,6 @@
       <c r="K42" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5836,17 +5281,6 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
@@ -5883,14 +5317,12 @@
       <c r="AK42" t="n">
         <v>0</v>
       </c>
-      <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="n">
         <v>1</v>
       </c>
       <c r="AN42" t="n">
         <v>0</v>
       </c>
-      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5955,7 +5387,6 @@
       <c r="K43" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5964,17 +5395,6 @@
       <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
@@ -6011,14 +5431,12 @@
       <c r="AK43" t="n">
         <v>0</v>
       </c>
-      <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="n">
         <v>1</v>
       </c>
       <c r="AN43" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6083,7 +5501,6 @@
       <c r="K44" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6092,17 +5509,6 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
@@ -6139,14 +5545,12 @@
       <c r="AK44" t="n">
         <v>0</v>
       </c>
-      <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="n">
         <v>1</v>
       </c>
       <c r="AN44" t="n">
         <v>0</v>
       </c>
-      <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6211,7 +5615,6 @@
       <c r="K45" t="n">
         <v>271936.64</v>
       </c>
-      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6220,17 +5623,6 @@
       <c r="N45" t="n">
         <v>1</v>
       </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
@@ -6267,14 +5659,12 @@
       <c r="AK45" t="n">
         <v>0</v>
       </c>
-      <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="n">
         <v>1</v>
       </c>
       <c r="AN45" t="n">
         <v>0</v>
       </c>
-      <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6339,7 +5729,6 @@
       <c r="K46" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6348,17 +5737,6 @@
       <c r="N46" t="n">
         <v>1</v>
       </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
@@ -6395,14 +5773,12 @@
       <c r="AK46" t="n">
         <v>0</v>
       </c>
-      <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="n">
         <v>1</v>
       </c>
       <c r="AN46" t="n">
         <v>0</v>
       </c>
-      <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6467,7 +5843,6 @@
       <c r="K47" t="n">
         <v>271936.64</v>
       </c>
-      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6476,17 +5851,6 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
@@ -6523,14 +5887,12 @@
       <c r="AK47" t="n">
         <v>0</v>
       </c>
-      <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="n">
         <v>1</v>
       </c>
       <c r="AN47" t="n">
         <v>0</v>
       </c>
-      <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6595,7 +5957,6 @@
       <c r="K48" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6604,17 +5965,6 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
@@ -6651,14 +6001,12 @@
       <c r="AK48" t="n">
         <v>0</v>
       </c>
-      <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="n">
         <v>1</v>
       </c>
       <c r="AN48" t="n">
         <v>0</v>
       </c>
-      <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6723,7 +6071,6 @@
       <c r="K49" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6732,17 +6079,6 @@
       <c r="N49" t="n">
         <v>1</v>
       </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
@@ -6779,14 +6115,12 @@
       <c r="AK49" t="n">
         <v>0</v>
       </c>
-      <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="n">
         <v>1</v>
       </c>
       <c r="AN49" t="n">
         <v>0</v>
       </c>
-      <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6851,7 +6185,6 @@
       <c r="K50" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6860,17 +6193,6 @@
       <c r="N50" t="n">
         <v>1</v>
       </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
@@ -6907,14 +6229,12 @@
       <c r="AK50" t="n">
         <v>0</v>
       </c>
-      <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="n">
         <v>1</v>
       </c>
       <c r="AN50" t="n">
         <v>0</v>
       </c>
-      <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6979,7 +6299,6 @@
       <c r="K51" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6988,17 +6307,6 @@
       <c r="N51" t="n">
         <v>1</v>
       </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
@@ -7035,14 +6343,12 @@
       <c r="AK51" t="n">
         <v>0</v>
       </c>
-      <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="n">
         <v>1</v>
       </c>
       <c r="AN51" t="n">
         <v>0</v>
       </c>
-      <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7107,7 +6413,6 @@
       <c r="K52" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7116,17 +6421,6 @@
       <c r="N52" t="n">
         <v>1</v>
       </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
@@ -7163,14 +6457,12 @@
       <c r="AK52" t="n">
         <v>0</v>
       </c>
-      <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="n">
         <v>1</v>
       </c>
       <c r="AN52" t="n">
         <v>0</v>
       </c>
-      <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7235,7 +6527,6 @@
       <c r="K53" t="n">
         <v>200221.98</v>
       </c>
-      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7244,17 +6535,6 @@
       <c r="N53" t="n">
         <v>1</v>
       </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
@@ -7291,14 +6571,12 @@
       <c r="AK53" t="n">
         <v>0</v>
       </c>
-      <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="n">
         <v>1</v>
       </c>
       <c r="AN53" t="n">
         <v>0</v>
       </c>
-      <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7363,7 +6641,6 @@
       <c r="K54" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7372,17 +6649,6 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
@@ -7419,14 +6685,12 @@
       <c r="AK54" t="n">
         <v>0</v>
       </c>
-      <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="n">
         <v>1</v>
       </c>
       <c r="AN54" t="n">
         <v>0</v>
       </c>
-      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7491,7 +6755,6 @@
       <c r="K55" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7500,17 +6763,6 @@
       <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
@@ -7547,14 +6799,12 @@
       <c r="AK55" t="n">
         <v>0</v>
       </c>
-      <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="n">
         <v>1</v>
       </c>
       <c r="AN55" t="n">
         <v>0</v>
       </c>
-      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7619,7 +6869,6 @@
       <c r="K56" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7628,17 +6877,6 @@
       <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
@@ -7675,14 +6913,12 @@
       <c r="AK56" t="n">
         <v>0</v>
       </c>
-      <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="n">
         <v>1</v>
       </c>
       <c r="AN56" t="n">
         <v>0</v>
       </c>
-      <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7747,7 +6983,6 @@
       <c r="K57" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7756,17 +6991,6 @@
       <c r="N57" t="n">
         <v>1</v>
       </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
@@ -7803,14 +7027,12 @@
       <c r="AK57" t="n">
         <v>0</v>
       </c>
-      <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="n">
         <v>1</v>
       </c>
       <c r="AN57" t="n">
         <v>0</v>
       </c>
-      <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7875,7 +7097,6 @@
       <c r="K58" t="n">
         <v>271936.64</v>
       </c>
-      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7884,17 +7105,6 @@
       <c r="N58" t="n">
         <v>1</v>
       </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
@@ -7931,14 +7141,12 @@
       <c r="AK58" t="n">
         <v>0</v>
       </c>
-      <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="n">
         <v>1</v>
       </c>
       <c r="AN58" t="n">
         <v>0</v>
       </c>
-      <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8003,7 +7211,6 @@
       <c r="K59" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8012,17 +7219,6 @@
       <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
@@ -8059,14 +7255,12 @@
       <c r="AK59" t="n">
         <v>0</v>
       </c>
-      <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="n">
         <v>1</v>
       </c>
       <c r="AN59" t="n">
         <v>0</v>
       </c>
-      <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8131,7 +7325,6 @@
       <c r="K60" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8140,17 +7333,6 @@
       <c r="N60" t="n">
         <v>1</v>
       </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
@@ -8187,14 +7369,12 @@
       <c r="AK60" t="n">
         <v>0</v>
       </c>
-      <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="n">
         <v>1</v>
       </c>
       <c r="AN60" t="n">
         <v>0</v>
       </c>
-      <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8259,7 +7439,6 @@
       <c r="K61" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8268,17 +7447,6 @@
       <c r="N61" t="n">
         <v>1</v>
       </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
@@ -8315,14 +7483,12 @@
       <c r="AK61" t="n">
         <v>0</v>
       </c>
-      <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="n">
         <v>1</v>
       </c>
       <c r="AN61" t="n">
         <v>0</v>
       </c>
-      <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8387,7 +7553,6 @@
       <c r="K62" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8396,17 +7561,6 @@
       <c r="N62" t="n">
         <v>1</v>
       </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
@@ -8443,14 +7597,12 @@
       <c r="AK62" t="n">
         <v>0</v>
       </c>
-      <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="n">
         <v>1</v>
       </c>
       <c r="AN62" t="n">
         <v>0</v>
       </c>
-      <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8515,7 +7667,6 @@
       <c r="K63" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8524,17 +7675,6 @@
       <c r="N63" t="n">
         <v>1</v>
       </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
@@ -8571,14 +7711,12 @@
       <c r="AK63" t="n">
         <v>0</v>
       </c>
-      <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="n">
         <v>1</v>
       </c>
       <c r="AN63" t="n">
         <v>0</v>
       </c>
-      <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8643,7 +7781,6 @@
       <c r="K64" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8652,17 +7789,6 @@
       <c r="N64" t="n">
         <v>1</v>
       </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
@@ -8699,14 +7825,12 @@
       <c r="AK64" t="n">
         <v>0</v>
       </c>
-      <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="n">
         <v>1</v>
       </c>
       <c r="AN64" t="n">
         <v>0</v>
       </c>
-      <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8771,7 +7895,6 @@
       <c r="K65" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8780,17 +7903,6 @@
       <c r="N65" t="n">
         <v>1</v>
       </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
@@ -8827,14 +7939,12 @@
       <c r="AK65" t="n">
         <v>0</v>
       </c>
-      <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="n">
         <v>1</v>
       </c>
       <c r="AN65" t="n">
         <v>0</v>
       </c>
-      <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8899,7 +8009,6 @@
       <c r="K66" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8908,17 +8017,6 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
@@ -8955,14 +8053,12 @@
       <c r="AK66" t="n">
         <v>0</v>
       </c>
-      <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="n">
         <v>1</v>
       </c>
       <c r="AN66" t="n">
         <v>0</v>
       </c>
-      <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9027,7 +8123,6 @@
       <c r="K67" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9036,17 +8131,6 @@
       <c r="N67" t="n">
         <v>1</v>
       </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
@@ -9083,14 +8167,12 @@
       <c r="AK67" t="n">
         <v>0</v>
       </c>
-      <c r="AL67" t="inlineStr"/>
       <c r="AM67" t="n">
         <v>1</v>
       </c>
       <c r="AN67" t="n">
         <v>0</v>
       </c>
-      <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9155,7 +8237,6 @@
       <c r="K68" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9164,17 +8245,6 @@
       <c r="N68" t="n">
         <v>1</v>
       </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
@@ -9211,14 +8281,12 @@
       <c r="AK68" t="n">
         <v>0</v>
       </c>
-      <c r="AL68" t="inlineStr"/>
       <c r="AM68" t="n">
         <v>1</v>
       </c>
       <c r="AN68" t="n">
         <v>0</v>
       </c>
-      <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9283,7 +8351,6 @@
       <c r="K69" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9292,17 +8359,6 @@
       <c r="N69" t="n">
         <v>1</v>
       </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
@@ -9339,14 +8395,12 @@
       <c r="AK69" t="n">
         <v>0</v>
       </c>
-      <c r="AL69" t="inlineStr"/>
       <c r="AM69" t="n">
         <v>1</v>
       </c>
       <c r="AN69" t="n">
         <v>0</v>
       </c>
-      <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9411,7 +8465,6 @@
       <c r="K70" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9420,17 +8473,6 @@
       <c r="N70" t="n">
         <v>1</v>
       </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
@@ -9467,14 +8509,12 @@
       <c r="AK70" t="n">
         <v>0</v>
       </c>
-      <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="n">
         <v>1</v>
       </c>
       <c r="AN70" t="n">
         <v>0</v>
       </c>
-      <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9539,7 +8579,6 @@
       <c r="K71" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9548,17 +8587,6 @@
       <c r="N71" t="n">
         <v>1</v>
       </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="n">
         <v>0</v>
       </c>
@@ -9595,14 +8623,12 @@
       <c r="AK71" t="n">
         <v>0</v>
       </c>
-      <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="n">
         <v>1</v>
       </c>
       <c r="AN71" t="n">
         <v>0</v>
       </c>
-      <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9667,7 +8693,6 @@
       <c r="K72" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9676,17 +8701,6 @@
       <c r="N72" t="n">
         <v>1</v>
       </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
@@ -9723,14 +8737,12 @@
       <c r="AK72" t="n">
         <v>0</v>
       </c>
-      <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="n">
         <v>1</v>
       </c>
       <c r="AN72" t="n">
         <v>0</v>
       </c>
-      <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9795,7 +8807,6 @@
       <c r="K73" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9804,17 +8815,6 @@
       <c r="N73" t="n">
         <v>1</v>
       </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="n">
         <v>0</v>
       </c>
@@ -9851,14 +8851,12 @@
       <c r="AK73" t="n">
         <v>0</v>
       </c>
-      <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="n">
         <v>1</v>
       </c>
       <c r="AN73" t="n">
         <v>0</v>
       </c>
-      <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9923,7 +8921,6 @@
       <c r="K74" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9932,17 +8929,6 @@
       <c r="N74" t="n">
         <v>1</v>
       </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="n">
         <v>0</v>
       </c>
@@ -9979,14 +8965,12 @@
       <c r="AK74" t="n">
         <v>0</v>
       </c>
-      <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="n">
         <v>1</v>
       </c>
       <c r="AN74" t="n">
         <v>0</v>
       </c>
-      <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10051,7 +9035,6 @@
       <c r="K75" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10060,17 +9043,6 @@
       <c r="N75" t="n">
         <v>1</v>
       </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="n">
         <v>0</v>
       </c>
@@ -10107,14 +9079,12 @@
       <c r="AK75" t="n">
         <v>0</v>
       </c>
-      <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="n">
         <v>1</v>
       </c>
       <c r="AN75" t="n">
         <v>0</v>
       </c>
-      <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10179,7 +9149,6 @@
       <c r="K76" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10188,17 +9157,6 @@
       <c r="N76" t="n">
         <v>1</v>
       </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="n">
         <v>0</v>
       </c>
@@ -10235,14 +9193,12 @@
       <c r="AK76" t="n">
         <v>0</v>
       </c>
-      <c r="AL76" t="inlineStr"/>
       <c r="AM76" t="n">
         <v>1</v>
       </c>
       <c r="AN76" t="n">
         <v>0</v>
       </c>
-      <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10307,7 +9263,6 @@
       <c r="K77" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10316,17 +9271,6 @@
       <c r="N77" t="n">
         <v>1</v>
       </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="n">
         <v>0</v>
       </c>
@@ -10363,14 +9307,12 @@
       <c r="AK77" t="n">
         <v>0</v>
       </c>
-      <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="n">
         <v>1</v>
       </c>
       <c r="AN77" t="n">
         <v>0</v>
       </c>
-      <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10435,7 +9377,6 @@
       <c r="K78" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10444,17 +9385,6 @@
       <c r="N78" t="n">
         <v>1</v>
       </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="n">
         <v>0</v>
       </c>
@@ -10491,14 +9421,12 @@
       <c r="AK78" t="n">
         <v>0</v>
       </c>
-      <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="n">
         <v>1</v>
       </c>
       <c r="AN78" t="n">
         <v>0</v>
       </c>
-      <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10563,7 +9491,6 @@
       <c r="K79" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10572,17 +9499,6 @@
       <c r="N79" t="n">
         <v>1</v>
       </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="n">
         <v>0</v>
       </c>
@@ -10619,14 +9535,12 @@
       <c r="AK79" t="n">
         <v>0</v>
       </c>
-      <c r="AL79" t="inlineStr"/>
       <c r="AM79" t="n">
         <v>1</v>
       </c>
       <c r="AN79" t="n">
         <v>0</v>
       </c>
-      <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10691,7 +9605,6 @@
       <c r="K80" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10700,17 +9613,6 @@
       <c r="N80" t="n">
         <v>1</v>
       </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="n">
         <v>0</v>
       </c>
@@ -10747,14 +9649,12 @@
       <c r="AK80" t="n">
         <v>0</v>
       </c>
-      <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="n">
         <v>1</v>
       </c>
       <c r="AN80" t="n">
         <v>0</v>
       </c>
-      <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10819,7 +9719,6 @@
       <c r="K81" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10828,17 +9727,6 @@
       <c r="N81" t="n">
         <v>1</v>
       </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="n">
         <v>0</v>
       </c>
@@ -10875,14 +9763,12 @@
       <c r="AK81" t="n">
         <v>0</v>
       </c>
-      <c r="AL81" t="inlineStr"/>
       <c r="AM81" t="n">
         <v>1</v>
       </c>
       <c r="AN81" t="n">
         <v>0</v>
       </c>
-      <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10947,7 +9833,6 @@
       <c r="K82" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10956,17 +9841,6 @@
       <c r="N82" t="n">
         <v>1</v>
       </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="n">
         <v>0</v>
       </c>
@@ -11003,14 +9877,12 @@
       <c r="AK82" t="n">
         <v>0</v>
       </c>
-      <c r="AL82" t="inlineStr"/>
       <c r="AM82" t="n">
         <v>1</v>
       </c>
       <c r="AN82" t="n">
         <v>0</v>
       </c>
-      <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11075,7 +9947,6 @@
       <c r="K83" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11084,17 +9955,6 @@
       <c r="N83" t="n">
         <v>1</v>
       </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="n">
         <v>0</v>
       </c>
@@ -11131,14 +9991,12 @@
       <c r="AK83" t="n">
         <v>0</v>
       </c>
-      <c r="AL83" t="inlineStr"/>
       <c r="AM83" t="n">
         <v>1</v>
       </c>
       <c r="AN83" t="n">
         <v>0</v>
       </c>
-      <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11203,7 +10061,6 @@
       <c r="K84" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11212,17 +10069,6 @@
       <c r="N84" t="n">
         <v>1</v>
       </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="n">
         <v>0</v>
       </c>
@@ -11259,14 +10105,12 @@
       <c r="AK84" t="n">
         <v>0</v>
       </c>
-      <c r="AL84" t="inlineStr"/>
       <c r="AM84" t="n">
         <v>1</v>
       </c>
       <c r="AN84" t="n">
         <v>0</v>
       </c>
-      <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11331,7 +10175,6 @@
       <c r="K85" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11340,17 +10183,6 @@
       <c r="N85" t="n">
         <v>1</v>
       </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="n">
         <v>0</v>
       </c>
@@ -11387,14 +10219,12 @@
       <c r="AK85" t="n">
         <v>0</v>
       </c>
-      <c r="AL85" t="inlineStr"/>
       <c r="AM85" t="n">
         <v>1</v>
       </c>
       <c r="AN85" t="n">
         <v>0</v>
       </c>
-      <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11459,7 +10289,6 @@
       <c r="K86" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11468,17 +10297,6 @@
       <c r="N86" t="n">
         <v>1</v>
       </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="n">
         <v>0</v>
       </c>
@@ -11515,14 +10333,12 @@
       <c r="AK86" t="n">
         <v>0</v>
       </c>
-      <c r="AL86" t="inlineStr"/>
       <c r="AM86" t="n">
         <v>1</v>
       </c>
       <c r="AN86" t="n">
         <v>0</v>
       </c>
-      <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11587,7 +10403,6 @@
       <c r="K87" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11596,17 +10411,6 @@
       <c r="N87" t="n">
         <v>1</v>
       </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="n">
         <v>0</v>
       </c>
@@ -11643,14 +10447,12 @@
       <c r="AK87" t="n">
         <v>0</v>
       </c>
-      <c r="AL87" t="inlineStr"/>
       <c r="AM87" t="n">
         <v>1</v>
       </c>
       <c r="AN87" t="n">
         <v>0</v>
       </c>
-      <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11715,7 +10517,6 @@
       <c r="K88" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11724,17 +10525,6 @@
       <c r="N88" t="n">
         <v>1</v>
       </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="n">
         <v>0</v>
       </c>
@@ -11771,14 +10561,12 @@
       <c r="AK88" t="n">
         <v>0</v>
       </c>
-      <c r="AL88" t="inlineStr"/>
       <c r="AM88" t="n">
         <v>1</v>
       </c>
       <c r="AN88" t="n">
         <v>0</v>
       </c>
-      <c r="AO88" t="inlineStr"/>
       <c r="AP88" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11843,7 +10631,6 @@
       <c r="K89" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11852,17 +10639,6 @@
       <c r="N89" t="n">
         <v>1</v>
       </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="n">
         <v>0</v>
       </c>
@@ -11899,14 +10675,12 @@
       <c r="AK89" t="n">
         <v>0</v>
       </c>
-      <c r="AL89" t="inlineStr"/>
       <c r="AM89" t="n">
         <v>1</v>
       </c>
       <c r="AN89" t="n">
         <v>0</v>
       </c>
-      <c r="AO89" t="inlineStr"/>
       <c r="AP89" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11971,7 +10745,6 @@
       <c r="K90" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11980,17 +10753,6 @@
       <c r="N90" t="n">
         <v>1</v>
       </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="n">
         <v>0</v>
       </c>
@@ -12027,14 +10789,12 @@
       <c r="AK90" t="n">
         <v>0</v>
       </c>
-      <c r="AL90" t="inlineStr"/>
       <c r="AM90" t="n">
         <v>1</v>
       </c>
       <c r="AN90" t="n">
         <v>0</v>
       </c>
-      <c r="AO90" t="inlineStr"/>
       <c r="AP90" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12099,7 +10859,6 @@
       <c r="K91" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12108,17 +10867,6 @@
       <c r="N91" t="n">
         <v>1</v>
       </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="n">
         <v>0</v>
       </c>
@@ -12155,14 +10903,12 @@
       <c r="AK91" t="n">
         <v>0</v>
       </c>
-      <c r="AL91" t="inlineStr"/>
       <c r="AM91" t="n">
         <v>1</v>
       </c>
       <c r="AN91" t="n">
         <v>0</v>
       </c>
-      <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12227,7 +10973,6 @@
       <c r="K92" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12236,17 +10981,6 @@
       <c r="N92" t="n">
         <v>1</v>
       </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="n">
         <v>0</v>
       </c>
@@ -12283,14 +11017,12 @@
       <c r="AK92" t="n">
         <v>0</v>
       </c>
-      <c r="AL92" t="inlineStr"/>
       <c r="AM92" t="n">
         <v>1</v>
       </c>
       <c r="AN92" t="n">
         <v>0</v>
       </c>
-      <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12355,7 +11087,6 @@
       <c r="K93" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12364,17 +11095,6 @@
       <c r="N93" t="n">
         <v>1</v>
       </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="n">
         <v>0</v>
       </c>
@@ -12411,14 +11131,12 @@
       <c r="AK93" t="n">
         <v>0</v>
       </c>
-      <c r="AL93" t="inlineStr"/>
       <c r="AM93" t="n">
         <v>1</v>
       </c>
       <c r="AN93" t="n">
         <v>0</v>
       </c>
-      <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12483,7 +11201,6 @@
       <c r="K94" t="n">
         <v>207272.88</v>
       </c>
-      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12492,17 +11209,6 @@
       <c r="N94" t="n">
         <v>1</v>
       </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="n">
         <v>0</v>
       </c>
@@ -12539,14 +11245,12 @@
       <c r="AK94" t="n">
         <v>0</v>
       </c>
-      <c r="AL94" t="inlineStr"/>
       <c r="AM94" t="n">
         <v>1</v>
       </c>
       <c r="AN94" t="n">
         <v>0</v>
       </c>
-      <c r="AO94" t="inlineStr"/>
       <c r="AP94" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12611,7 +11315,6 @@
       <c r="K95" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12620,17 +11323,6 @@
       <c r="N95" t="n">
         <v>1</v>
       </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="n">
         <v>0</v>
       </c>
@@ -12667,14 +11359,12 @@
       <c r="AK95" t="n">
         <v>0</v>
       </c>
-      <c r="AL95" t="inlineStr"/>
       <c r="AM95" t="n">
         <v>1</v>
       </c>
       <c r="AN95" t="n">
         <v>0</v>
       </c>
-      <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12739,7 +11429,6 @@
       <c r="K96" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12748,17 +11437,6 @@
       <c r="N96" t="n">
         <v>1</v>
       </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="n">
         <v>0</v>
       </c>
@@ -12795,14 +11473,12 @@
       <c r="AK96" t="n">
         <v>0</v>
       </c>
-      <c r="AL96" t="inlineStr"/>
       <c r="AM96" t="n">
         <v>1</v>
       </c>
       <c r="AN96" t="n">
         <v>0</v>
       </c>
-      <c r="AO96" t="inlineStr"/>
       <c r="AP96" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12867,7 +11543,6 @@
       <c r="K97" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12876,17 +11551,6 @@
       <c r="N97" t="n">
         <v>1</v>
       </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="n">
         <v>0</v>
       </c>
@@ -12923,14 +11587,12 @@
       <c r="AK97" t="n">
         <v>0</v>
       </c>
-      <c r="AL97" t="inlineStr"/>
       <c r="AM97" t="n">
         <v>1</v>
       </c>
       <c r="AN97" t="n">
         <v>0</v>
       </c>
-      <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12995,7 +11657,6 @@
       <c r="K98" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13004,17 +11665,6 @@
       <c r="N98" t="n">
         <v>1</v>
       </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="n">
         <v>0</v>
       </c>
@@ -13051,14 +11701,12 @@
       <c r="AK98" t="n">
         <v>0</v>
       </c>
-      <c r="AL98" t="inlineStr"/>
       <c r="AM98" t="n">
         <v>1</v>
       </c>
       <c r="AN98" t="n">
         <v>0</v>
       </c>
-      <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13123,7 +11771,6 @@
       <c r="K99" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13132,17 +11779,6 @@
       <c r="N99" t="n">
         <v>1</v>
       </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="n">
         <v>0</v>
       </c>
@@ -13179,14 +11815,12 @@
       <c r="AK99" t="n">
         <v>0</v>
       </c>
-      <c r="AL99" t="inlineStr"/>
       <c r="AM99" t="n">
         <v>1</v>
       </c>
       <c r="AN99" t="n">
         <v>0</v>
       </c>
-      <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13251,7 +11885,6 @@
       <c r="K100" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13260,17 +11893,6 @@
       <c r="N100" t="n">
         <v>1</v>
       </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="n">
         <v>0</v>
       </c>
@@ -13307,14 +11929,12 @@
       <c r="AK100" t="n">
         <v>0</v>
       </c>
-      <c r="AL100" t="inlineStr"/>
       <c r="AM100" t="n">
         <v>1</v>
       </c>
       <c r="AN100" t="n">
         <v>0</v>
       </c>
-      <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13379,7 +11999,6 @@
       <c r="K101" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13388,17 +12007,6 @@
       <c r="N101" t="n">
         <v>1</v>
       </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="n">
         <v>0</v>
       </c>
@@ -13435,14 +12043,12 @@
       <c r="AK101" t="n">
         <v>0</v>
       </c>
-      <c r="AL101" t="inlineStr"/>
       <c r="AM101" t="n">
         <v>1</v>
       </c>
       <c r="AN101" t="n">
         <v>0</v>
       </c>
-      <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13507,7 +12113,6 @@
       <c r="K102" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13516,17 +12121,6 @@
       <c r="N102" t="n">
         <v>1</v>
       </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="n">
         <v>0</v>
       </c>
@@ -13563,14 +12157,12 @@
       <c r="AK102" t="n">
         <v>0</v>
       </c>
-      <c r="AL102" t="inlineStr"/>
       <c r="AM102" t="n">
         <v>1</v>
       </c>
       <c r="AN102" t="n">
         <v>0</v>
       </c>
-      <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13635,7 +12227,6 @@
       <c r="K103" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13644,17 +12235,6 @@
       <c r="N103" t="n">
         <v>1</v>
       </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="n">
         <v>0</v>
       </c>
@@ -13691,14 +12271,12 @@
       <c r="AK103" t="n">
         <v>0</v>
       </c>
-      <c r="AL103" t="inlineStr"/>
       <c r="AM103" t="n">
         <v>1</v>
       </c>
       <c r="AN103" t="n">
         <v>0</v>
       </c>
-      <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13763,7 +12341,6 @@
       <c r="K104" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13772,17 +12349,6 @@
       <c r="N104" t="n">
         <v>1</v>
       </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="n">
         <v>0</v>
       </c>
@@ -13819,14 +12385,12 @@
       <c r="AK104" t="n">
         <v>0</v>
       </c>
-      <c r="AL104" t="inlineStr"/>
       <c r="AM104" t="n">
         <v>1</v>
       </c>
       <c r="AN104" t="n">
         <v>0</v>
       </c>
-      <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13891,7 +12455,6 @@
       <c r="K105" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13900,17 +12463,6 @@
       <c r="N105" t="n">
         <v>1</v>
       </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="n">
         <v>0</v>
       </c>
@@ -13947,14 +12499,12 @@
       <c r="AK105" t="n">
         <v>0</v>
       </c>
-      <c r="AL105" t="inlineStr"/>
       <c r="AM105" t="n">
         <v>1</v>
       </c>
       <c r="AN105" t="n">
         <v>0</v>
       </c>
-      <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14019,7 +12569,6 @@
       <c r="K106" t="n">
         <v>130441.77</v>
       </c>
-      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14028,17 +12577,6 @@
       <c r="N106" t="n">
         <v>1</v>
       </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="n">
         <v>0</v>
       </c>
@@ -14075,14 +12613,12 @@
       <c r="AK106" t="n">
         <v>0</v>
       </c>
-      <c r="AL106" t="inlineStr"/>
       <c r="AM106" t="n">
         <v>1</v>
       </c>
       <c r="AN106" t="n">
         <v>0</v>
       </c>
-      <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14147,7 +12683,6 @@
       <c r="K107" t="n">
         <v>159283.09</v>
       </c>
-      <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -14156,17 +12691,6 @@
       <c r="N107" t="n">
         <v>0</v>
       </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="n">
         <v>1</v>
       </c>
@@ -14203,15 +12727,12 @@
       <c r="AK107" t="n">
         <v>0</v>
       </c>
-      <c r="AL107" t="inlineStr"/>
       <c r="AM107" t="n">
         <v>0</v>
       </c>
       <c r="AN107" t="n">
         <v>0</v>
       </c>
-      <c r="AO107" t="inlineStr"/>
-      <c r="AP107" t="inlineStr"/>
       <c r="AQ107" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -14271,7 +12792,6 @@
       <c r="K108" t="n">
         <v>159283.09</v>
       </c>
-      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14280,17 +12800,6 @@
       <c r="N108" t="n">
         <v>1</v>
       </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="n">
         <v>0</v>
       </c>
@@ -14327,14 +12836,12 @@
       <c r="AK108" t="n">
         <v>0</v>
       </c>
-      <c r="AL108" t="inlineStr"/>
       <c r="AM108" t="n">
         <v>1</v>
       </c>
       <c r="AN108" t="n">
         <v>0</v>
       </c>
-      <c r="AO108" t="inlineStr"/>
       <c r="AP108" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14399,7 +12906,6 @@
       <c r="K109" t="n">
         <v>201220.9</v>
       </c>
-      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -14408,17 +12914,6 @@
       <c r="N109" t="n">
         <v>0</v>
       </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="n">
         <v>1</v>
       </c>
@@ -14455,15 +12950,12 @@
       <c r="AK109" t="n">
         <v>0</v>
       </c>
-      <c r="AL109" t="inlineStr"/>
       <c r="AM109" t="n">
         <v>0</v>
       </c>
       <c r="AN109" t="n">
         <v>0</v>
       </c>
-      <c r="AO109" t="inlineStr"/>
-      <c r="AP109" t="inlineStr"/>
       <c r="AQ109" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -14523,7 +13015,6 @@
       <c r="K110" t="n">
         <v>270638.88</v>
       </c>
-      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -14532,17 +13023,6 @@
       <c r="N110" t="n">
         <v>0</v>
       </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="n">
         <v>1</v>
       </c>
@@ -14579,15 +13059,12 @@
       <c r="AK110" t="n">
         <v>0</v>
       </c>
-      <c r="AL110" t="inlineStr"/>
       <c r="AM110" t="n">
         <v>0</v>
       </c>
       <c r="AN110" t="n">
         <v>0</v>
       </c>
-      <c r="AO110" t="inlineStr"/>
-      <c r="AP110" t="inlineStr"/>
       <c r="AQ110" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -14647,7 +13124,6 @@
       <c r="K111" t="n">
         <v>255453.43</v>
       </c>
-      <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -14656,17 +13132,6 @@
       <c r="N111" t="n">
         <v>0</v>
       </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="n">
         <v>1</v>
       </c>
@@ -14703,15 +13168,12 @@
       <c r="AK111" t="n">
         <v>0</v>
       </c>
-      <c r="AL111" t="inlineStr"/>
       <c r="AM111" t="n">
         <v>0</v>
       </c>
       <c r="AN111" t="n">
         <v>0</v>
       </c>
-      <c r="AO111" t="inlineStr"/>
-      <c r="AP111" t="inlineStr"/>
       <c r="AQ111" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -14771,7 +13233,6 @@
       <c r="K112" t="n">
         <v>228620.67</v>
       </c>
-      <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -14780,17 +13241,6 @@
       <c r="N112" t="n">
         <v>0</v>
       </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="n">
         <v>1</v>
       </c>
@@ -14827,15 +13277,12 @@
       <c r="AK112" t="n">
         <v>0</v>
       </c>
-      <c r="AL112" t="inlineStr"/>
       <c r="AM112" t="n">
         <v>0</v>
       </c>
       <c r="AN112" t="n">
         <v>0</v>
       </c>
-      <c r="AO112" t="inlineStr"/>
-      <c r="AP112" t="inlineStr"/>
       <c r="AQ112" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -14895,7 +13342,6 @@
       <c r="K113" t="n">
         <v>159283.09</v>
       </c>
-      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -14904,17 +13350,6 @@
       <c r="N113" t="n">
         <v>0</v>
       </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="n">
         <v>1</v>
       </c>
@@ -14951,15 +13386,12 @@
       <c r="AK113" t="n">
         <v>0</v>
       </c>
-      <c r="AL113" t="inlineStr"/>
       <c r="AM113" t="n">
         <v>0</v>
       </c>
       <c r="AN113" t="n">
         <v>0</v>
       </c>
-      <c r="AO113" t="inlineStr"/>
-      <c r="AP113" t="inlineStr"/>
       <c r="AQ113" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -15019,7 +13451,6 @@
       <c r="K114" t="n">
         <v>171895.18</v>
       </c>
-      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -15028,17 +13459,6 @@
       <c r="N114" t="n">
         <v>0</v>
       </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="n">
         <v>1</v>
       </c>
@@ -15075,15 +13495,12 @@
       <c r="AK114" t="n">
         <v>0</v>
       </c>
-      <c r="AL114" t="inlineStr"/>
       <c r="AM114" t="n">
         <v>0</v>
       </c>
       <c r="AN114" t="n">
         <v>0</v>
       </c>
-      <c r="AO114" t="inlineStr"/>
-      <c r="AP114" t="inlineStr"/>
       <c r="AQ114" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -15143,7 +13560,6 @@
       <c r="K115" t="n">
         <v>201220.9</v>
       </c>
-      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -15152,17 +13568,6 @@
       <c r="N115" t="n">
         <v>0</v>
       </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="n">
         <v>1</v>
       </c>
@@ -15199,15 +13604,12 @@
       <c r="AK115" t="n">
         <v>0</v>
       </c>
-      <c r="AL115" t="inlineStr"/>
       <c r="AM115" t="n">
         <v>0</v>
       </c>
       <c r="AN115" t="n">
         <v>0</v>
       </c>
-      <c r="AO115" t="inlineStr"/>
-      <c r="AP115" t="inlineStr"/>
       <c r="AQ115" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -15267,7 +13669,6 @@
       <c r="K116" t="n">
         <v>159283.09</v>
       </c>
-      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -15276,17 +13677,6 @@
       <c r="N116" t="n">
         <v>0</v>
       </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="n">
         <v>1</v>
       </c>
@@ -15323,15 +13713,12 @@
       <c r="AK116" t="n">
         <v>0</v>
       </c>
-      <c r="AL116" t="inlineStr"/>
       <c r="AM116" t="n">
         <v>0</v>
       </c>
       <c r="AN116" t="n">
         <v>0</v>
       </c>
-      <c r="AO116" t="inlineStr"/>
-      <c r="AP116" t="inlineStr"/>
       <c r="AQ116" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -15391,7 +13778,6 @@
       <c r="K117" t="n">
         <v>298038.66</v>
       </c>
-      <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -15400,17 +13786,6 @@
       <c r="N117" t="n">
         <v>0</v>
       </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="n">
         <v>1</v>
       </c>
@@ -15447,15 +13822,12 @@
       <c r="AK117" t="n">
         <v>0</v>
       </c>
-      <c r="AL117" t="inlineStr"/>
       <c r="AM117" t="n">
         <v>0</v>
       </c>
       <c r="AN117" t="n">
         <v>0</v>
       </c>
-      <c r="AO117" t="inlineStr"/>
-      <c r="AP117" t="inlineStr"/>
       <c r="AQ117" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -15515,7 +13887,6 @@
       <c r="K118" t="n">
         <v>369182.57</v>
       </c>
-      <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -15524,17 +13895,6 @@
       <c r="N118" t="n">
         <v>0</v>
       </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="n">
         <v>1</v>
       </c>
@@ -15571,15 +13931,12 @@
       <c r="AK118" t="n">
         <v>0</v>
       </c>
-      <c r="AL118" t="inlineStr"/>
       <c r="AM118" t="n">
         <v>0</v>
       </c>
       <c r="AN118" t="n">
         <v>0</v>
       </c>
-      <c r="AO118" t="inlineStr"/>
-      <c r="AP118" t="inlineStr"/>
       <c r="AQ118" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -15639,7 +13996,6 @@
       <c r="K119" t="n">
         <v>188877.94</v>
       </c>
-      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -15648,17 +14004,6 @@
       <c r="N119" t="n">
         <v>0</v>
       </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="n">
         <v>1</v>
       </c>
@@ -15695,15 +14040,12 @@
       <c r="AK119" t="n">
         <v>0</v>
       </c>
-      <c r="AL119" t="inlineStr"/>
       <c r="AM119" t="n">
         <v>0</v>
       </c>
       <c r="AN119" t="n">
         <v>0</v>
       </c>
-      <c r="AO119" t="inlineStr"/>
-      <c r="AP119" t="inlineStr"/>
       <c r="AQ119" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -15763,7 +14105,6 @@
       <c r="K120" t="n">
         <v>151330.77</v>
       </c>
-      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -15772,17 +14113,6 @@
       <c r="N120" t="n">
         <v>0</v>
       </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="n">
         <v>1</v>
       </c>
@@ -15819,15 +14149,12 @@
       <c r="AK120" t="n">
         <v>0</v>
       </c>
-      <c r="AL120" t="inlineStr"/>
       <c r="AM120" t="n">
         <v>0</v>
       </c>
       <c r="AN120" t="n">
         <v>0</v>
       </c>
-      <c r="AO120" t="inlineStr"/>
-      <c r="AP120" t="inlineStr"/>
       <c r="AQ120" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -15887,7 +14214,6 @@
       <c r="K121" t="n">
         <v>123724.46</v>
       </c>
-      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -15896,17 +14222,6 @@
       <c r="N121" t="n">
         <v>0</v>
       </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="n">
         <v>1</v>
       </c>
@@ -15943,15 +14258,12 @@
       <c r="AK121" t="n">
         <v>0</v>
       </c>
-      <c r="AL121" t="inlineStr"/>
       <c r="AM121" t="n">
         <v>0</v>
       </c>
       <c r="AN121" t="n">
         <v>0</v>
       </c>
-      <c r="AO121" t="inlineStr"/>
-      <c r="AP121" t="inlineStr"/>
       <c r="AQ121" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -16011,7 +14323,6 @@
       <c r="K122" t="n">
         <v>477676.74</v>
       </c>
-      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -16020,17 +14331,6 @@
       <c r="N122" t="n">
         <v>0</v>
       </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="n">
         <v>1</v>
       </c>
@@ -16067,15 +14367,12 @@
       <c r="AK122" t="n">
         <v>0</v>
       </c>
-      <c r="AL122" t="inlineStr"/>
       <c r="AM122" t="n">
         <v>0</v>
       </c>
       <c r="AN122" t="n">
         <v>0</v>
       </c>
-      <c r="AO122" t="inlineStr"/>
-      <c r="AP122" t="inlineStr"/>
       <c r="AQ122" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -16135,7 +14432,6 @@
       <c r="K123" t="n">
         <v>151330.77</v>
       </c>
-      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -16144,17 +14440,6 @@
       <c r="N123" t="n">
         <v>0</v>
       </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="n">
         <v>1</v>
       </c>
@@ -16191,15 +14476,12 @@
       <c r="AK123" t="n">
         <v>0</v>
       </c>
-      <c r="AL123" t="inlineStr"/>
       <c r="AM123" t="n">
         <v>0</v>
       </c>
       <c r="AN123" t="n">
         <v>0</v>
       </c>
-      <c r="AO123" t="inlineStr"/>
-      <c r="AP123" t="inlineStr"/>
       <c r="AQ123" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -16259,7 +14541,6 @@
       <c r="K124" t="n">
         <v>149388.48</v>
       </c>
-      <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -16268,17 +14549,6 @@
       <c r="N124" t="n">
         <v>0</v>
       </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="n">
         <v>1</v>
       </c>
@@ -16315,15 +14585,12 @@
       <c r="AK124" t="n">
         <v>0</v>
       </c>
-      <c r="AL124" t="inlineStr"/>
       <c r="AM124" t="n">
         <v>0</v>
       </c>
       <c r="AN124" t="n">
         <v>0</v>
       </c>
-      <c r="AO124" t="inlineStr"/>
-      <c r="AP124" t="inlineStr"/>
       <c r="AQ124" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -16383,7 +14650,6 @@
       <c r="K125" t="n">
         <v>477676.74</v>
       </c>
-      <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -16392,17 +14658,6 @@
       <c r="N125" t="n">
         <v>0</v>
       </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="n">
         <v>1</v>
       </c>
@@ -16439,15 +14694,12 @@
       <c r="AK125" t="n">
         <v>0</v>
       </c>
-      <c r="AL125" t="inlineStr"/>
       <c r="AM125" t="n">
         <v>0</v>
       </c>
       <c r="AN125" t="n">
         <v>0</v>
       </c>
-      <c r="AO125" t="inlineStr"/>
-      <c r="AP125" t="inlineStr"/>
       <c r="AQ125" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -16507,7 +14759,6 @@
       <c r="K126" t="n">
         <v>123724.46</v>
       </c>
-      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -16516,17 +14767,6 @@
       <c r="N126" t="n">
         <v>0</v>
       </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="n">
         <v>1</v>
       </c>
@@ -16563,15 +14803,12 @@
       <c r="AK126" t="n">
         <v>0</v>
       </c>
-      <c r="AL126" t="inlineStr"/>
       <c r="AM126" t="n">
         <v>0</v>
       </c>
       <c r="AN126" t="n">
         <v>0</v>
       </c>
-      <c r="AO126" t="inlineStr"/>
-      <c r="AP126" t="inlineStr"/>
       <c r="AQ126" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -16631,7 +14868,6 @@
       <c r="K127" t="n">
         <v>421377.59</v>
       </c>
-      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -16640,17 +14876,6 @@
       <c r="N127" t="n">
         <v>0</v>
       </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="n">
         <v>1</v>
       </c>
@@ -16687,15 +14912,12 @@
       <c r="AK127" t="n">
         <v>0</v>
       </c>
-      <c r="AL127" t="inlineStr"/>
       <c r="AM127" t="n">
         <v>0</v>
       </c>
       <c r="AN127" t="n">
         <v>0</v>
       </c>
-      <c r="AO127" t="inlineStr"/>
-      <c r="AP127" t="inlineStr"/>
       <c r="AQ127" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -16755,7 +14977,6 @@
       <c r="K128" t="n">
         <v>240299.44</v>
       </c>
-      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -16764,17 +14985,6 @@
       <c r="N128" t="n">
         <v>0</v>
       </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="n">
         <v>1</v>
       </c>
@@ -16811,15 +15021,12 @@
       <c r="AK128" t="n">
         <v>0</v>
       </c>
-      <c r="AL128" t="inlineStr"/>
       <c r="AM128" t="n">
         <v>0</v>
       </c>
       <c r="AN128" t="n">
         <v>0</v>
       </c>
-      <c r="AO128" t="inlineStr"/>
-      <c r="AP128" t="inlineStr"/>
       <c r="AQ128" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -16879,7 +15086,6 @@
       <c r="K129" t="n">
         <v>477676.74</v>
       </c>
-      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -16888,17 +15094,6 @@
       <c r="N129" t="n">
         <v>0</v>
       </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="n">
         <v>1</v>
       </c>
@@ -16935,15 +15130,12 @@
       <c r="AK129" t="n">
         <v>0</v>
       </c>
-      <c r="AL129" t="inlineStr"/>
       <c r="AM129" t="n">
         <v>0</v>
       </c>
       <c r="AN129" t="n">
         <v>0</v>
       </c>
-      <c r="AO129" t="inlineStr"/>
-      <c r="AP129" t="inlineStr"/>
       <c r="AQ129" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -17003,7 +15195,6 @@
       <c r="K130" t="n">
         <v>151330.77</v>
       </c>
-      <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -17012,17 +15203,6 @@
       <c r="N130" t="n">
         <v>0</v>
       </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="n">
         <v>1</v>
       </c>
@@ -17059,15 +15239,12 @@
       <c r="AK130" t="n">
         <v>0</v>
       </c>
-      <c r="AL130" t="inlineStr"/>
       <c r="AM130" t="n">
         <v>0</v>
       </c>
       <c r="AN130" t="n">
         <v>0</v>
       </c>
-      <c r="AO130" t="inlineStr"/>
-      <c r="AP130" t="inlineStr"/>
       <c r="AQ130" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -17125,7 +15302,6 @@
       <c r="K131" t="n">
         <v>4427334.88</v>
       </c>
-      <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17134,17 +15310,6 @@
       <c r="N131" t="n">
         <v>1</v>
       </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="n">
         <v>0</v>
       </c>
@@ -17181,14 +15346,12 @@
       <c r="AK131" t="n">
         <v>0</v>
       </c>
-      <c r="AL131" t="inlineStr"/>
       <c r="AM131" t="n">
         <v>1</v>
       </c>
       <c r="AN131" t="n">
         <v>0</v>
       </c>
-      <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17251,7 +15414,6 @@
       <c r="K132" t="n">
         <v>2029337.58</v>
       </c>
-      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17270,16 +15432,11 @@
           <t>Oct. 30, 2018</t>
         </is>
       </c>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr">
         <is>
           <t>May 15, 2018</t>
         </is>
       </c>
-      <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr">
         <is>
           <t>July 16, 2018</t>
@@ -17290,7 +15447,6 @@
           <t>Kupler Industries Inc.</t>
         </is>
       </c>
-      <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="n">
         <v>0</v>
       </c>
@@ -17327,14 +15483,12 @@
       <c r="AK132" t="n">
         <v>0</v>
       </c>
-      <c r="AL132" t="inlineStr"/>
       <c r="AM132" t="n">
         <v>1</v>
       </c>
       <c r="AN132" t="n">
         <v>0</v>
       </c>
-      <c r="AO132" t="inlineStr"/>
       <c r="AP132" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17397,7 +15551,6 @@
       <c r="K133" t="n">
         <v>2502091.86</v>
       </c>
-      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17411,17 +15564,11 @@
           <t>Oct. 21, 2018</t>
         </is>
       </c>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr">
         <is>
           <t>May 15, 2018</t>
         </is>
       </c>
-      <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr">
         <is>
           <t>July 16, 2018</t>
@@ -17432,7 +15579,6 @@
           <t>Automatgeneric Trading and Services</t>
         </is>
       </c>
-      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="n">
         <v>0</v>
       </c>
@@ -17469,14 +15615,12 @@
       <c r="AK133" t="n">
         <v>0</v>
       </c>
-      <c r="AL133" t="inlineStr"/>
       <c r="AM133" t="n">
         <v>1</v>
       </c>
       <c r="AN133" t="n">
         <v>0</v>
       </c>
-      <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17539,7 +15683,6 @@
       <c r="K134" t="n">
         <v>2441996.22</v>
       </c>
-      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17558,16 +15701,11 @@
           <t>Oct. 30, 2018</t>
         </is>
       </c>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr">
         <is>
           <t>May 15, 2018</t>
         </is>
       </c>
-      <c r="V134" t="inlineStr"/>
       <c r="W134" t="inlineStr">
         <is>
           <t>July 16, 2018</t>
@@ -17578,7 +15716,6 @@
           <t>Kupler Industries Inc.</t>
         </is>
       </c>
-      <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="n">
         <v>0</v>
       </c>
@@ -17615,14 +15752,12 @@
       <c r="AK134" t="n">
         <v>0</v>
       </c>
-      <c r="AL134" t="inlineStr"/>
       <c r="AM134" t="n">
         <v>1</v>
       </c>
       <c r="AN134" t="n">
         <v>0</v>
       </c>
-      <c r="AO134" t="inlineStr"/>
       <c r="AP134" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17685,7 +15820,6 @@
       <c r="K135" t="n">
         <v>4189628.61</v>
       </c>
-      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17694,17 +15828,6 @@
       <c r="N135" t="n">
         <v>1</v>
       </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="n">
         <v>0</v>
       </c>
@@ -17741,14 +15864,12 @@
       <c r="AK135" t="n">
         <v>0</v>
       </c>
-      <c r="AL135" t="inlineStr"/>
       <c r="AM135" t="n">
         <v>1</v>
       </c>
       <c r="AN135" t="n">
         <v>0</v>
       </c>
-      <c r="AO135" t="inlineStr"/>
       <c r="AP135" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17827,7 +15948,6 @@
           <t>January 24 2018</t>
         </is>
       </c>
-      <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr">
         <is>
           <t>GEPS 5410273</t>
@@ -17868,7 +15988,6 @@
           <t>EC SOLICON BUILDERS</t>
         </is>
       </c>
-      <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="n">
         <v>0</v>
       </c>
@@ -17905,14 +16024,12 @@
       <c r="AK136" t="n">
         <v>0</v>
       </c>
-      <c r="AL136" t="inlineStr"/>
       <c r="AM136" t="n">
         <v>1</v>
       </c>
       <c r="AN136" t="n">
         <v>0</v>
       </c>
-      <c r="AO136" t="inlineStr"/>
       <c r="AP136" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17975,7 +16092,6 @@
       <c r="K137" t="n">
         <v>2028571.99824321</v>
       </c>
-      <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17984,17 +16100,6 @@
       <c r="N137" t="n">
         <v>1</v>
       </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="n">
         <v>0</v>
       </c>
@@ -18031,14 +16136,12 @@
       <c r="AK137" t="n">
         <v>0</v>
       </c>
-      <c r="AL137" t="inlineStr"/>
       <c r="AM137" t="n">
         <v>1</v>
       </c>
       <c r="AN137" t="n">
         <v>0</v>
       </c>
-      <c r="AO137" t="inlineStr"/>
       <c r="AP137" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18101,7 +16204,6 @@
       <c r="K138" t="n">
         <v>2024350.99824321</v>
       </c>
-      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18110,17 +16212,6 @@
       <c r="N138" t="n">
         <v>1</v>
       </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="n">
         <v>0</v>
       </c>
@@ -18157,14 +16248,12 @@
       <c r="AK138" t="n">
         <v>0</v>
       </c>
-      <c r="AL138" t="inlineStr"/>
       <c r="AM138" t="n">
         <v>1</v>
       </c>
       <c r="AN138" t="n">
         <v>0</v>
       </c>
-      <c r="AO138" t="inlineStr"/>
       <c r="AP138" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18227,7 +16316,6 @@
       <c r="K139" t="n">
         <v>2024562.04824321</v>
       </c>
-      <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18236,17 +16324,6 @@
       <c r="N139" t="n">
         <v>1</v>
       </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="n">
         <v>0</v>
       </c>
@@ -18283,14 +16360,12 @@
       <c r="AK139" t="n">
         <v>0</v>
       </c>
-      <c r="AL139" t="inlineStr"/>
       <c r="AM139" t="n">
         <v>1</v>
       </c>
       <c r="AN139" t="n">
         <v>0</v>
       </c>
-      <c r="AO139" t="inlineStr"/>
       <c r="AP139" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18353,7 +16428,6 @@
       <c r="K140" t="n">
         <v>2024878.62324321</v>
       </c>
-      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18362,17 +16436,6 @@
       <c r="N140" t="n">
         <v>1</v>
       </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="n">
         <v>0</v>
       </c>
@@ -18409,14 +16472,12 @@
       <c r="AK140" t="n">
         <v>0</v>
       </c>
-      <c r="AL140" t="inlineStr"/>
       <c r="AM140" t="n">
         <v>1</v>
       </c>
       <c r="AN140" t="n">
         <v>0</v>
       </c>
-      <c r="AO140" t="inlineStr"/>
       <c r="AP140" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18479,7 +16540,6 @@
       <c r="K141" t="n">
         <v>2028360.94824321</v>
       </c>
-      <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18488,17 +16548,6 @@
       <c r="N141" t="n">
         <v>1</v>
       </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="n">
         <v>0</v>
       </c>
@@ -18535,14 +16584,12 @@
       <c r="AK141" t="n">
         <v>0</v>
       </c>
-      <c r="AL141" t="inlineStr"/>
       <c r="AM141" t="n">
         <v>1</v>
       </c>
       <c r="AN141" t="n">
         <v>0</v>
       </c>
-      <c r="AO141" t="inlineStr"/>
       <c r="AP141" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18605,7 +16652,6 @@
       <c r="K142" t="n">
         <v>2022240.49824321</v>
       </c>
-      <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18614,17 +16660,6 @@
       <c r="N142" t="n">
         <v>1</v>
       </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="n">
         <v>0</v>
       </c>
@@ -18661,14 +16696,12 @@
       <c r="AK142" t="n">
         <v>0</v>
       </c>
-      <c r="AL142" t="inlineStr"/>
       <c r="AM142" t="n">
         <v>1</v>
       </c>
       <c r="AN142" t="n">
         <v>0</v>
       </c>
-      <c r="AO142" t="inlineStr"/>
       <c r="AP142" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18731,7 +16764,6 @@
       <c r="K143" t="n">
         <v>2029099.62324321</v>
       </c>
-      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18740,17 +16772,6 @@
       <c r="N143" t="n">
         <v>1</v>
       </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="n">
         <v>0</v>
       </c>
@@ -18787,14 +16808,12 @@
       <c r="AK143" t="n">
         <v>0</v>
       </c>
-      <c r="AL143" t="inlineStr"/>
       <c r="AM143" t="n">
         <v>1</v>
       </c>
       <c r="AN143" t="n">
         <v>0</v>
       </c>
-      <c r="AO143" t="inlineStr"/>
       <c r="AP143" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18857,7 +16876,6 @@
       <c r="K144" t="n">
         <v>2035958.74824321</v>
       </c>
-      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18866,17 +16884,6 @@
       <c r="N144" t="n">
         <v>1</v>
       </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="n">
         <v>0</v>
       </c>
@@ -18913,14 +16920,12 @@
       <c r="AK144" t="n">
         <v>0</v>
       </c>
-      <c r="AL144" t="inlineStr"/>
       <c r="AM144" t="n">
         <v>1</v>
       </c>
       <c r="AN144" t="n">
         <v>0</v>
       </c>
-      <c r="AO144" t="inlineStr"/>
       <c r="AP144" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18983,7 +16988,6 @@
       <c r="K145" t="n">
         <v>2022768.12324321</v>
       </c>
-      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18992,17 +16996,6 @@
       <c r="N145" t="n">
         <v>1</v>
       </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="n">
         <v>0</v>
       </c>
@@ -19039,14 +17032,12 @@
       <c r="AK145" t="n">
         <v>0</v>
       </c>
-      <c r="AL145" t="inlineStr"/>
       <c r="AM145" t="n">
         <v>1</v>
       </c>
       <c r="AN145" t="n">
         <v>0</v>
       </c>
-      <c r="AO145" t="inlineStr"/>
       <c r="AP145" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19109,7 +17100,6 @@
       <c r="K146" t="n">
         <v>2021185.24824321</v>
       </c>
-      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19118,17 +17108,6 @@
       <c r="N146" t="n">
         <v>1</v>
       </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="n">
         <v>0</v>
       </c>
@@ -19165,14 +17144,12 @@
       <c r="AK146" t="n">
         <v>0</v>
       </c>
-      <c r="AL146" t="inlineStr"/>
       <c r="AM146" t="n">
         <v>1</v>
       </c>
       <c r="AN146" t="n">
         <v>0</v>
       </c>
-      <c r="AO146" t="inlineStr"/>
       <c r="AP146" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19235,7 +17212,6 @@
       <c r="K147" t="n">
         <v>2023295.74824321</v>
       </c>
-      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19244,17 +17220,6 @@
       <c r="N147" t="n">
         <v>1</v>
       </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
-      <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="n">
         <v>0</v>
       </c>
@@ -19291,14 +17256,12 @@
       <c r="AK147" t="n">
         <v>0</v>
       </c>
-      <c r="AL147" t="inlineStr"/>
       <c r="AM147" t="n">
         <v>1</v>
       </c>
       <c r="AN147" t="n">
         <v>0</v>
       </c>
-      <c r="AO147" t="inlineStr"/>
       <c r="AP147" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19361,7 +17324,6 @@
       <c r="K148" t="n">
         <v>2041234.99824321</v>
       </c>
-      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19370,17 +17332,6 @@
       <c r="N148" t="n">
         <v>1</v>
       </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
-      <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
-      <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="n">
         <v>0</v>
       </c>
@@ -19417,14 +17368,12 @@
       <c r="AK148" t="n">
         <v>0</v>
       </c>
-      <c r="AL148" t="inlineStr"/>
       <c r="AM148" t="n">
         <v>1</v>
       </c>
       <c r="AN148" t="n">
         <v>0</v>
       </c>
-      <c r="AO148" t="inlineStr"/>
       <c r="AP148" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19487,7 +17436,6 @@
       <c r="K149" t="n">
         <v>1992027.421171935</v>
       </c>
-      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19496,17 +17444,6 @@
       <c r="N149" t="n">
         <v>1</v>
       </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
-      <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="n">
         <v>0</v>
       </c>
@@ -19543,14 +17480,12 @@
       <c r="AK149" t="n">
         <v>0</v>
       </c>
-      <c r="AL149" t="inlineStr"/>
       <c r="AM149" t="n">
         <v>1</v>
       </c>
       <c r="AN149" t="n">
         <v>0</v>
       </c>
-      <c r="AO149" t="inlineStr"/>
       <c r="AP149" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19613,7 +17548,6 @@
       <c r="K150" t="n">
         <v>2020129.99824321</v>
       </c>
-      <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19622,17 +17556,6 @@
       <c r="N150" t="n">
         <v>1</v>
       </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
-      <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="n">
         <v>0</v>
       </c>
@@ -19669,14 +17592,12 @@
       <c r="AK150" t="n">
         <v>0</v>
       </c>
-      <c r="AL150" t="inlineStr"/>
       <c r="AM150" t="n">
         <v>1</v>
       </c>
       <c r="AN150" t="n">
         <v>0</v>
       </c>
-      <c r="AO150" t="inlineStr"/>
       <c r="AP150" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19739,7 +17660,6 @@
       <c r="K151" t="n">
         <v>2024350.99824321</v>
       </c>
-      <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19748,17 +17668,6 @@
       <c r="N151" t="n">
         <v>1</v>
       </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="n">
         <v>0</v>
       </c>
@@ -19795,14 +17704,12 @@
       <c r="AK151" t="n">
         <v>0</v>
       </c>
-      <c r="AL151" t="inlineStr"/>
       <c r="AM151" t="n">
         <v>1</v>
       </c>
       <c r="AN151" t="n">
         <v>0</v>
       </c>
-      <c r="AO151" t="inlineStr"/>
       <c r="AP151" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19865,7 +17772,6 @@
       <c r="K152" t="n">
         <v>2020129.99824321</v>
       </c>
-      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19874,17 +17780,6 @@
       <c r="N152" t="n">
         <v>1</v>
       </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr"/>
-      <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="n">
         <v>0</v>
       </c>
@@ -19921,14 +17816,12 @@
       <c r="AK152" t="n">
         <v>0</v>
       </c>
-      <c r="AL152" t="inlineStr"/>
       <c r="AM152" t="n">
         <v>1</v>
       </c>
       <c r="AN152" t="n">
         <v>0</v>
       </c>
-      <c r="AO152" t="inlineStr"/>
       <c r="AP152" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19991,7 +17884,6 @@
       <c r="K153" t="n">
         <v>2021712.87324321</v>
       </c>
-      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20000,17 +17892,6 @@
       <c r="N153" t="n">
         <v>1</v>
       </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr"/>
-      <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
-      <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="n">
         <v>0</v>
       </c>
@@ -20047,14 +17928,12 @@
       <c r="AK153" t="n">
         <v>0</v>
       </c>
-      <c r="AL153" t="inlineStr"/>
       <c r="AM153" t="n">
         <v>1</v>
       </c>
       <c r="AN153" t="n">
         <v>0</v>
       </c>
-      <c r="AO153" t="inlineStr"/>
       <c r="AP153" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20117,7 +17996,6 @@
       <c r="K154" t="n">
         <v>2025406.24824321</v>
       </c>
-      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20126,17 +18004,6 @@
       <c r="N154" t="n">
         <v>1</v>
       </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr"/>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="n">
         <v>0</v>
       </c>
@@ -20173,14 +18040,12 @@
       <c r="AK154" t="n">
         <v>0</v>
       </c>
-      <c r="AL154" t="inlineStr"/>
       <c r="AM154" t="n">
         <v>1</v>
       </c>
       <c r="AN154" t="n">
         <v>0</v>
       </c>
-      <c r="AO154" t="inlineStr"/>
       <c r="AP154" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20243,7 +18108,6 @@
       <c r="K155" t="n">
         <v>9864781.289999999</v>
       </c>
-      <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20252,17 +18116,6 @@
       <c r="N155" t="n">
         <v>1</v>
       </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr"/>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="n">
         <v>0</v>
       </c>
@@ -20299,14 +18152,12 @@
       <c r="AK155" t="n">
         <v>0</v>
       </c>
-      <c r="AL155" t="inlineStr"/>
       <c r="AM155" t="n">
         <v>1</v>
       </c>
       <c r="AN155" t="n">
         <v>0</v>
       </c>
-      <c r="AO155" t="inlineStr"/>
       <c r="AP155" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20369,7 +18220,6 @@
       <c r="K156" t="n">
         <v>6800902.85</v>
       </c>
-      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20378,17 +18228,6 @@
       <c r="N156" t="n">
         <v>1</v>
       </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="n">
         <v>0</v>
       </c>
@@ -20425,14 +18264,12 @@
       <c r="AK156" t="n">
         <v>0</v>
       </c>
-      <c r="AL156" t="inlineStr"/>
       <c r="AM156" t="n">
         <v>1</v>
       </c>
       <c r="AN156" t="n">
         <v>0</v>
       </c>
-      <c r="AO156" t="inlineStr"/>
       <c r="AP156" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20506,10 +18343,6 @@
       <c r="N157" t="n">
         <v>1</v>
       </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr">
         <is>
           <t>Dec. 07, 2018</t>
@@ -20530,13 +18363,11 @@
           <t>Dec. 28, 2018</t>
         </is>
       </c>
-      <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr">
         <is>
           <t>3K'S Industrial Maintenance and Services, Inc.</t>
         </is>
       </c>
-      <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="n">
         <v>0</v>
       </c>
@@ -20584,7 +18415,6 @@
       <c r="AN157" t="n">
         <v>0</v>
       </c>
-      <c r="AO157" t="inlineStr"/>
       <c r="AP157" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20647,7 +18477,6 @@
       <c r="K158" t="n">
         <v>4563975.22</v>
       </c>
-      <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20656,17 +18485,6 @@
       <c r="N158" t="n">
         <v>1</v>
       </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="n">
         <v>0</v>
       </c>
@@ -20703,14 +18521,12 @@
       <c r="AK158" t="n">
         <v>0</v>
       </c>
-      <c r="AL158" t="inlineStr"/>
       <c r="AM158" t="n">
         <v>1</v>
       </c>
       <c r="AN158" t="n">
         <v>0</v>
       </c>
-      <c r="AO158" t="inlineStr"/>
       <c r="AP158" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20836,7 +18652,6 @@
           <t>ARKIPOWERLINES CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="n">
         <v>0</v>
       </c>
@@ -20884,7 +18699,6 @@
       <c r="AN159" t="n">
         <v>0</v>
       </c>
-      <c r="AO159" t="inlineStr"/>
       <c r="AP159" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21010,7 +18824,6 @@
           <t>ARKIPOWERLINES CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="n">
         <v>0</v>
       </c>
@@ -21058,7 +18871,6 @@
       <c r="AN160" t="n">
         <v>0</v>
       </c>
-      <c r="AO160" t="inlineStr"/>
       <c r="AP160" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21184,7 +18996,6 @@
           <t>ARKIPOWERLINES CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="n">
         <v>0</v>
       </c>
@@ -21232,7 +19043,6 @@
       <c r="AN161" t="n">
         <v>0</v>
       </c>
-      <c r="AO161" t="inlineStr"/>
       <c r="AP161" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21358,7 +19168,6 @@
           <t>ARKIPOWERLINES CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="n">
         <v>0</v>
       </c>
@@ -21406,7 +19215,6 @@
       <c r="AN162" t="n">
         <v>0</v>
       </c>
-      <c r="AO162" t="inlineStr"/>
       <c r="AP162" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21471,7 +19279,6 @@
       <c r="K163" t="n">
         <v>1776026.61</v>
       </c>
-      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21490,15 +19297,6 @@
           <t>December 16, 2019</t>
         </is>
       </c>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
-      <c r="W163" t="inlineStr"/>
-      <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="n">
         <v>0</v>
       </c>
@@ -21546,7 +19344,6 @@
       <c r="AN163" t="n">
         <v>0</v>
       </c>
-      <c r="AO163" t="inlineStr"/>
       <c r="AP163" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21611,7 +19408,6 @@
       <c r="K164" t="n">
         <v>1476152.55</v>
       </c>
-      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21630,15 +19426,6 @@
           <t>December 16, 2019</t>
         </is>
       </c>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="n">
         <v>0</v>
       </c>
@@ -21686,7 +19473,6 @@
       <c r="AN164" t="n">
         <v>0</v>
       </c>
-      <c r="AO164" t="inlineStr"/>
       <c r="AP164" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21751,7 +19537,6 @@
       <c r="K165" t="n">
         <v>1222548.19</v>
       </c>
-      <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21770,15 +19555,6 @@
           <t>December 16, 2019</t>
         </is>
       </c>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr"/>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="n">
         <v>0</v>
       </c>
@@ -21826,7 +19602,6 @@
       <c r="AN165" t="n">
         <v>0</v>
       </c>
-      <c r="AO165" t="inlineStr"/>
       <c r="AP165" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21891,7 +19666,6 @@
       <c r="K166" t="n">
         <v>1210745.69</v>
       </c>
-      <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21900,21 +19674,11 @@
       <c r="N166" t="n">
         <v>1</v>
       </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr"/>
-      <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr">
         <is>
           <t>Kupler Industries Inc.</t>
         </is>
       </c>
-      <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="n">
         <v>0</v>
       </c>
@@ -21962,7 +19726,6 @@
       <c r="AN166" t="n">
         <v>0</v>
       </c>
-      <c r="AO166" t="inlineStr"/>
       <c r="AP166" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22027,7 +19790,6 @@
       <c r="K167" t="n">
         <v>2917622.17</v>
       </c>
-      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22036,21 +19798,11 @@
       <c r="N167" t="n">
         <v>1</v>
       </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr"/>
-      <c r="T167" t="inlineStr"/>
-      <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr"/>
-      <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr">
         <is>
           <t>Kupler Industries Inc.</t>
         </is>
       </c>
-      <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="n">
         <v>0</v>
       </c>
@@ -22098,7 +19850,6 @@
       <c r="AN167" t="n">
         <v>0</v>
       </c>
-      <c r="AO167" t="inlineStr"/>
       <c r="AP167" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22163,7 +19914,6 @@
       <c r="K168" t="n">
         <v>1560238.02</v>
       </c>
-      <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22172,21 +19922,11 @@
       <c r="N168" t="n">
         <v>1</v>
       </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="inlineStr"/>
-      <c r="T168" t="inlineStr"/>
-      <c r="U168" t="inlineStr"/>
-      <c r="V168" t="inlineStr"/>
-      <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr">
         <is>
           <t>Kupler Industries Inc.</t>
         </is>
       </c>
-      <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="n">
         <v>0</v>
       </c>
@@ -22234,7 +19974,6 @@
       <c r="AN168" t="n">
         <v>0</v>
       </c>
-      <c r="AO168" t="inlineStr"/>
       <c r="AP168" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22299,7 +20038,6 @@
       <c r="K169" t="n">
         <v>1249822.23</v>
       </c>
-      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22308,21 +20046,11 @@
       <c r="N169" t="n">
         <v>1</v>
       </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr"/>
-      <c r="T169" t="inlineStr"/>
-      <c r="U169" t="inlineStr"/>
-      <c r="V169" t="inlineStr"/>
-      <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr">
         <is>
           <t>Kupler Industries Inc.</t>
         </is>
       </c>
-      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="n">
         <v>0</v>
       </c>
@@ -22370,7 +20098,6 @@
       <c r="AN169" t="n">
         <v>0</v>
       </c>
-      <c r="AO169" t="inlineStr"/>
       <c r="AP169" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22435,7 +20162,6 @@
       <c r="K170" t="n">
         <v>3218081.51</v>
       </c>
-      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22444,17 +20170,6 @@
       <c r="N170" t="n">
         <v>1</v>
       </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr"/>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="n">
         <v>0</v>
       </c>
@@ -22502,7 +20217,6 @@
       <c r="AN170" t="n">
         <v>0</v>
       </c>
-      <c r="AO170" t="inlineStr"/>
       <c r="AP170" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22567,7 +20281,6 @@
       <c r="K171" t="n">
         <v>3011164.88</v>
       </c>
-      <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22576,17 +20289,6 @@
       <c r="N171" t="n">
         <v>1</v>
       </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr"/>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr"/>
-      <c r="W171" t="inlineStr"/>
-      <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="n">
         <v>0</v>
       </c>
@@ -22634,7 +20336,6 @@
       <c r="AN171" t="n">
         <v>0</v>
       </c>
-      <c r="AO171" t="inlineStr"/>
       <c r="AP171" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22699,7 +20400,6 @@
       <c r="K172" t="n">
         <v>3006881.53</v>
       </c>
-      <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22708,17 +20408,6 @@
       <c r="N172" t="n">
         <v>1</v>
       </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="inlineStr"/>
-      <c r="T172" t="inlineStr"/>
-      <c r="U172" t="inlineStr"/>
-      <c r="V172" t="inlineStr"/>
-      <c r="W172" t="inlineStr"/>
-      <c r="X172" t="inlineStr"/>
-      <c r="Y172" t="inlineStr"/>
       <c r="Z172" t="n">
         <v>0</v>
       </c>
@@ -22766,7 +20455,6 @@
       <c r="AN172" t="n">
         <v>0</v>
       </c>
-      <c r="AO172" t="inlineStr"/>
       <c r="AP172" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22831,7 +20519,6 @@
       <c r="K173" t="n">
         <v>3007232.17</v>
       </c>
-      <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22840,17 +20527,6 @@
       <c r="N173" t="n">
         <v>1</v>
       </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="inlineStr"/>
-      <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr"/>
-      <c r="V173" t="inlineStr"/>
-      <c r="W173" t="inlineStr"/>
-      <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr"/>
       <c r="Z173" t="n">
         <v>0</v>
       </c>
@@ -22898,7 +20574,6 @@
       <c r="AN173" t="n">
         <v>0</v>
       </c>
-      <c r="AO173" t="inlineStr"/>
       <c r="AP173" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22963,7 +20638,6 @@
       <c r="K174" t="n">
         <v>4710444.89</v>
       </c>
-      <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22972,17 +20646,6 @@
       <c r="N174" t="n">
         <v>1</v>
       </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr"/>
-      <c r="W174" t="inlineStr"/>
-      <c r="X174" t="inlineStr"/>
-      <c r="Y174" t="inlineStr"/>
       <c r="Z174" t="n">
         <v>0</v>
       </c>
@@ -23030,7 +20693,6 @@
       <c r="AN174" t="n">
         <v>0</v>
       </c>
-      <c r="AO174" t="inlineStr"/>
       <c r="AP174" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23095,7 +20757,6 @@
       <c r="K175" t="n">
         <v>8690370</v>
       </c>
-      <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23104,17 +20765,6 @@
       <c r="N175" t="n">
         <v>1</v>
       </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr"/>
-      <c r="W175" t="inlineStr"/>
-      <c r="X175" t="inlineStr"/>
-      <c r="Y175" t="inlineStr"/>
       <c r="Z175" t="n">
         <v>0</v>
       </c>
@@ -23162,7 +20812,6 @@
       <c r="AN175" t="n">
         <v>0</v>
       </c>
-      <c r="AO175" t="inlineStr"/>
       <c r="AP175" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23219,7 +20868,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
         <v>3094443.62</v>
       </c>
@@ -23234,27 +20882,24 @@
       <c r="N176" t="n">
         <v>1</v>
       </c>
-      <c r="O176" s="2" t="n">
+      <c r="O176" s="3" t="n">
         <v>43779</v>
       </c>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr">
         <is>
           <t>2019-08-019</t>
         </is>
       </c>
-      <c r="S176" s="2" t="n">
+      <c r="S176" s="3" t="n">
         <v>43431</v>
       </c>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" s="2" t="n">
+      <c r="U176" s="3" t="n">
         <v>43451</v>
       </c>
-      <c r="V176" s="2" t="n">
+      <c r="V176" s="3" t="n">
         <v>43683</v>
       </c>
-      <c r="W176" s="2" t="n">
+      <c r="W176" s="3" t="n">
         <v>43719</v>
       </c>
       <c r="X176" t="inlineStr">
@@ -23262,7 +20907,6 @@
           <t>ISULAN ECT CONSTRUCTION &amp; GEN. MDSE INC.</t>
         </is>
       </c>
-      <c r="Y176" t="inlineStr"/>
       <c r="Z176" t="n">
         <v>0</v>
       </c>
@@ -23310,7 +20954,6 @@
       <c r="AN176" t="n">
         <v>0</v>
       </c>
-      <c r="AO176" t="inlineStr"/>
       <c r="AP176" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23367,7 +21010,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
         <v>7901621.66</v>
       </c>
@@ -23382,27 +21024,24 @@
       <c r="N177" t="n">
         <v>1</v>
       </c>
-      <c r="O177" s="2" t="n">
+      <c r="O177" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr">
         <is>
           <t>2019-08-0120</t>
         </is>
       </c>
-      <c r="S177" s="2" t="n">
+      <c r="S177" s="3" t="n">
         <v>43431</v>
       </c>
-      <c r="T177" t="inlineStr"/>
-      <c r="U177" s="2" t="n">
+      <c r="U177" s="3" t="n">
         <v>43451</v>
       </c>
-      <c r="V177" s="2" t="n">
+      <c r="V177" s="3" t="n">
         <v>43683</v>
       </c>
-      <c r="W177" s="2" t="n">
+      <c r="W177" s="3" t="n">
         <v>43719</v>
       </c>
       <c r="X177" t="inlineStr">
@@ -23410,7 +21049,6 @@
           <t>ISULAN ECT CONSTRUCTION &amp; GEN. MDSE INC.</t>
         </is>
       </c>
-      <c r="Y177" t="inlineStr"/>
       <c r="Z177" t="n">
         <v>0</v>
       </c>
@@ -23458,7 +21096,6 @@
       <c r="AN177" t="n">
         <v>0</v>
       </c>
-      <c r="AO177" t="inlineStr"/>
       <c r="AP177" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23539,8 +21176,6 @@
           <t>Sept. 28, 2020</t>
         </is>
       </c>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr">
         <is>
           <t>003-2020</t>
@@ -23576,7 +21211,6 @@
           <t>3K'S Industrial Maintenance and Services, Inc.</t>
         </is>
       </c>
-      <c r="Y178" t="inlineStr"/>
       <c r="Z178" t="n">
         <v>0</v>
       </c>
@@ -23624,7 +21258,6 @@
       <c r="AN178" t="n">
         <v>0</v>
       </c>
-      <c r="AO178" t="inlineStr"/>
       <c r="AP178" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23705,8 +21338,6 @@
           <t>Sept. 28, 2020</t>
         </is>
       </c>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr">
         <is>
           <t>004-2020</t>
@@ -23742,7 +21373,6 @@
           <t>3K'S Industrial Maintenance and Services, Inc.</t>
         </is>
       </c>
-      <c r="Y179" t="inlineStr"/>
       <c r="Z179" t="n">
         <v>0</v>
       </c>
@@ -23790,7 +21420,6 @@
       <c r="AN179" t="n">
         <v>0</v>
       </c>
-      <c r="AO179" t="inlineStr"/>
       <c r="AP179" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23847,7 +21476,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
         <v>2837168.08</v>
       </c>
@@ -23912,7 +21540,6 @@
           <t>ARKIPOWERLINES CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="n">
         <v>0</v>
       </c>
@@ -23960,7 +21587,6 @@
       <c r="AN180" t="n">
         <v>0</v>
       </c>
-      <c r="AO180" t="inlineStr"/>
       <c r="AP180" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24017,7 +21643,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>8424149.470000001</v>
       </c>
@@ -24034,21 +21659,11 @@
       <c r="N181" t="n">
         <v>1</v>
       </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr">
         <is>
           <t>Elec2020-R12-GENSAN-005</t>
         </is>
       </c>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr"/>
-      <c r="V181" t="inlineStr"/>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
       <c r="Z181" t="n">
         <v>0</v>
       </c>
@@ -24085,14 +21700,12 @@
       <c r="AK181" t="n">
         <v>0</v>
       </c>
-      <c r="AL181" t="inlineStr"/>
       <c r="AM181" t="n">
         <v>1</v>
       </c>
       <c r="AN181" t="n">
         <v>0</v>
       </c>
-      <c r="AO181" t="inlineStr"/>
       <c r="AP181" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24149,7 +21762,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
         <v>6012095.58</v>
       </c>
@@ -24166,21 +21778,11 @@
       <c r="N182" t="n">
         <v>1</v>
       </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr">
         <is>
           <t>Elec2020-R12-GENSAN-004</t>
         </is>
       </c>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
-      <c r="T182" t="inlineStr"/>
-      <c r="U182" t="inlineStr"/>
-      <c r="V182" t="inlineStr"/>
-      <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="n">
         <v>0</v>
       </c>
@@ -24217,14 +21819,12 @@
       <c r="AK182" t="n">
         <v>0</v>
       </c>
-      <c r="AL182" t="inlineStr"/>
       <c r="AM182" t="n">
         <v>1</v>
       </c>
       <c r="AN182" t="n">
         <v>0</v>
       </c>
-      <c r="AO182" t="inlineStr"/>
       <c r="AP182" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24281,7 +21881,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
         <v>5964667.21</v>
       </c>
@@ -24298,21 +21897,11 @@
       <c r="N183" t="n">
         <v>1</v>
       </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr">
         <is>
           <t>Elec2020-R12-GENSAN-006</t>
         </is>
       </c>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
-      <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
-      <c r="W183" t="inlineStr"/>
-      <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="n">
         <v>0</v>
       </c>
@@ -24349,14 +21938,12 @@
       <c r="AK183" t="n">
         <v>0</v>
       </c>
-      <c r="AL183" t="inlineStr"/>
       <c r="AM183" t="n">
         <v>1</v>
       </c>
       <c r="AN183" t="n">
         <v>0</v>
       </c>
-      <c r="AO183" t="inlineStr"/>
       <c r="AP183" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24408,12 +21995,9 @@
       <c r="H184" t="n">
         <v>1</v>
       </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
         <v>2991847.12</v>
       </c>
-      <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24422,21 +22006,11 @@
       <c r="N184" t="n">
         <v>1</v>
       </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr">
         <is>
           <t>Elec2019-RXII-Kidapawan City-001</t>
         </is>
       </c>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
-      <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="n">
         <v>0</v>
       </c>
@@ -24473,14 +22047,12 @@
       <c r="AK184" t="n">
         <v>0</v>
       </c>
-      <c r="AL184" t="inlineStr"/>
       <c r="AM184" t="n">
         <v>1</v>
       </c>
       <c r="AN184" t="n">
         <v>0</v>
       </c>
-      <c r="AO184" t="inlineStr"/>
       <c r="AP184" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24532,12 +22104,9 @@
       <c r="H185" t="n">
         <v>1</v>
       </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
         <v>4367788.32</v>
       </c>
-      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24546,21 +22115,11 @@
       <c r="N185" t="n">
         <v>1</v>
       </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr">
         <is>
           <t>Elec 2020-RXII-Koronadal City-001</t>
         </is>
       </c>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
-      <c r="T185" t="inlineStr"/>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
-      <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="n">
         <v>0</v>
       </c>
@@ -24597,14 +22156,12 @@
       <c r="AK185" t="n">
         <v>0</v>
       </c>
-      <c r="AL185" t="inlineStr"/>
       <c r="AM185" t="n">
         <v>1</v>
       </c>
       <c r="AN185" t="n">
         <v>0</v>
       </c>
-      <c r="AO185" t="inlineStr"/>
       <c r="AP185" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24656,12 +22213,9 @@
       <c r="H186" t="n">
         <v>1</v>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
         <v>3436815.02</v>
       </c>
-      <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24670,21 +22224,11 @@
       <c r="N186" t="n">
         <v>1</v>
       </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr">
         <is>
           <t>ELECTRIFICATION 2020-RXII-COTABATO-001</t>
         </is>
       </c>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr"/>
-      <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
-      <c r="W186" t="inlineStr"/>
-      <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
       <c r="Z186" t="n">
         <v>0</v>
       </c>
@@ -24721,14 +22265,12 @@
       <c r="AK186" t="n">
         <v>0</v>
       </c>
-      <c r="AL186" t="inlineStr"/>
       <c r="AM186" t="n">
         <v>1</v>
       </c>
       <c r="AN186" t="n">
         <v>0</v>
       </c>
-      <c r="AO186" t="inlineStr"/>
       <c r="AP186" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24780,12 +22322,9 @@
       <c r="H187" t="n">
         <v>1</v>
       </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
         <v>3449323.79</v>
       </c>
-      <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24794,21 +22333,11 @@
       <c r="N187" t="n">
         <v>1</v>
       </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr">
         <is>
           <t>ELECTRIFICATION 2020-RXII-COTABATO-002</t>
         </is>
       </c>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr"/>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="n">
         <v>0</v>
       </c>
@@ -24845,14 +22374,12 @@
       <c r="AK187" t="n">
         <v>0</v>
       </c>
-      <c r="AL187" t="inlineStr"/>
       <c r="AM187" t="n">
         <v>1</v>
       </c>
       <c r="AN187" t="n">
         <v>0</v>
       </c>
-      <c r="AO187" t="inlineStr"/>
       <c r="AP187" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24904,12 +22431,9 @@
       <c r="H188" t="n">
         <v>1</v>
       </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
         <v>3072490.97</v>
       </c>
-      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24918,21 +22442,11 @@
       <c r="N188" t="n">
         <v>1</v>
       </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr">
         <is>
           <t>ELECTRIFICATION 2020-RXII-COTABATO-012</t>
         </is>
       </c>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
-      <c r="V188" t="inlineStr"/>
-      <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="n">
         <v>0</v>
       </c>
@@ -24969,14 +22483,12 @@
       <c r="AK188" t="n">
         <v>0</v>
       </c>
-      <c r="AL188" t="inlineStr"/>
       <c r="AM188" t="n">
         <v>1</v>
       </c>
       <c r="AN188" t="n">
         <v>0</v>
       </c>
-      <c r="AO188" t="inlineStr"/>
       <c r="AP188" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25028,12 +22540,9 @@
       <c r="H189" t="n">
         <v>1</v>
       </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
         <v>3058840.97</v>
       </c>
-      <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25042,21 +22551,11 @@
       <c r="N189" t="n">
         <v>1</v>
       </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr">
         <is>
           <t>ELECTRIFICATION 2020-RXII-COTABATO-010</t>
         </is>
       </c>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
-      <c r="V189" t="inlineStr"/>
-      <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="n">
         <v>0</v>
       </c>
@@ -25093,14 +22592,12 @@
       <c r="AK189" t="n">
         <v>0</v>
       </c>
-      <c r="AL189" t="inlineStr"/>
       <c r="AM189" t="n">
         <v>1</v>
       </c>
       <c r="AN189" t="n">
         <v>0</v>
       </c>
-      <c r="AO189" t="inlineStr"/>
       <c r="AP189" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25152,12 +22649,9 @@
       <c r="H190" t="n">
         <v>1</v>
       </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
         <v>3056740.97</v>
       </c>
-      <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25166,21 +22660,11 @@
       <c r="N190" t="n">
         <v>1</v>
       </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr">
         <is>
           <t>ELECTRIFICATION 2020-RXII-COTABATO-005</t>
         </is>
       </c>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="inlineStr"/>
-      <c r="T190" t="inlineStr"/>
-      <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
-      <c r="W190" t="inlineStr"/>
-      <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="n">
         <v>0</v>
       </c>
@@ -25217,14 +22701,12 @@
       <c r="AK190" t="n">
         <v>0</v>
       </c>
-      <c r="AL190" t="inlineStr"/>
       <c r="AM190" t="n">
         <v>1</v>
       </c>
       <c r="AN190" t="n">
         <v>0</v>
       </c>
-      <c r="AO190" t="inlineStr"/>
       <c r="AP190" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25276,12 +22758,9 @@
       <c r="H191" t="n">
         <v>1</v>
       </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
         <v>6074475.44</v>
       </c>
-      <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25290,21 +22769,11 @@
       <c r="N191" t="n">
         <v>1</v>
       </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
       <c r="Q191" t="inlineStr">
         <is>
           <t>Elec2020-R12-South Cotabato-001</t>
         </is>
       </c>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="inlineStr"/>
-      <c r="T191" t="inlineStr"/>
-      <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
-      <c r="W191" t="inlineStr"/>
-      <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="n">
         <v>0</v>
       </c>
@@ -25341,14 +22810,12 @@
       <c r="AK191" t="n">
         <v>0</v>
       </c>
-      <c r="AL191" t="inlineStr"/>
       <c r="AM191" t="n">
         <v>1</v>
       </c>
       <c r="AN191" t="n">
         <v>0</v>
       </c>
-      <c r="AO191" t="inlineStr"/>
       <c r="AP191" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25400,12 +22867,9 @@
       <c r="H192" t="n">
         <v>1</v>
       </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
         <v>3274525.52</v>
       </c>
-      <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25414,21 +22878,11 @@
       <c r="N192" t="n">
         <v>1</v>
       </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr">
         <is>
           <t>Elec2020-R12-South Cotabato-002</t>
         </is>
       </c>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="inlineStr"/>
-      <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
-      <c r="W192" t="inlineStr"/>
-      <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
         <v>0</v>
       </c>
@@ -25465,14 +22919,12 @@
       <c r="AK192" t="n">
         <v>0</v>
       </c>
-      <c r="AL192" t="inlineStr"/>
       <c r="AM192" t="n">
         <v>1</v>
       </c>
       <c r="AN192" t="n">
         <v>0</v>
       </c>
-      <c r="AO192" t="inlineStr"/>
       <c r="AP192" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25524,12 +22976,9 @@
       <c r="H193" t="n">
         <v>1</v>
       </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
         <v>2881823.41</v>
       </c>
-      <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25538,21 +22987,11 @@
       <c r="N193" t="n">
         <v>1</v>
       </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr">
         <is>
           <t>Elec2020-R12-South Cotabato-003</t>
         </is>
       </c>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="inlineStr"/>
-      <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
-      <c r="W193" t="inlineStr"/>
-      <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="n">
         <v>0</v>
       </c>
@@ -25589,14 +23028,12 @@
       <c r="AK193" t="n">
         <v>0</v>
       </c>
-      <c r="AL193" t="inlineStr"/>
       <c r="AM193" t="n">
         <v>1</v>
       </c>
       <c r="AN193" t="n">
         <v>0</v>
       </c>
-      <c r="AO193" t="inlineStr"/>
       <c r="AP193" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25653,11 +23090,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
         <v>6202395.91</v>
       </c>
-      <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25666,14 +23101,11 @@
       <c r="N194" t="n">
         <v>1</v>
       </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr">
         <is>
           <t>Elec 2020-RXII-Sultan Kudarat-001</t>
         </is>
       </c>
-      <c r="R194" t="inlineStr"/>
       <c r="S194" t="inlineStr">
         <is>
           <t>July 23, 2021</t>
@@ -25689,14 +23121,11 @@
           <t>August 11, 2021</t>
         </is>
       </c>
-      <c r="V194" t="inlineStr"/>
-      <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr">
         <is>
           <t>CCO Engineering Construction and Supply</t>
         </is>
       </c>
-      <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="n">
         <v>0</v>
       </c>
@@ -25733,14 +23162,12 @@
       <c r="AK194" t="n">
         <v>0</v>
       </c>
-      <c r="AL194" t="inlineStr"/>
       <c r="AM194" t="n">
         <v>1</v>
       </c>
       <c r="AN194" t="n">
         <v>0</v>
       </c>
-      <c r="AO194" t="inlineStr"/>
       <c r="AP194" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25805,7 +23232,6 @@
       <c r="K195" t="n">
         <v>5581077.08</v>
       </c>
-      <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25819,26 +23245,24 @@
           <t>120CD</t>
         </is>
       </c>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr">
         <is>
           <t>010-2024</t>
         </is>
       </c>
-      <c r="S195" s="2" t="n">
+      <c r="S195" s="3" t="n">
         <v>45546</v>
       </c>
-      <c r="T195" s="2" t="n">
+      <c r="T195" s="3" t="n">
         <v>45558</v>
       </c>
-      <c r="U195" s="2" t="n">
+      <c r="U195" s="3" t="n">
         <v>45572</v>
       </c>
-      <c r="V195" s="2" t="n">
+      <c r="V195" s="3" t="n">
         <v>45576</v>
       </c>
-      <c r="W195" s="2" t="n">
+      <c r="W195" s="3" t="n">
         <v>45315</v>
       </c>
       <c r="X195" t="inlineStr">
@@ -25846,7 +23270,6 @@
           <t>KUPLER INDUSTRIES INC.</t>
         </is>
       </c>
-      <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="n">
         <v>0</v>
       </c>
@@ -25883,14 +23306,12 @@
       <c r="AK195" t="n">
         <v>0</v>
       </c>
-      <c r="AL195" t="inlineStr"/>
       <c r="AM195" t="n">
         <v>1</v>
       </c>
       <c r="AN195" t="n">
         <v>0</v>
       </c>
-      <c r="AO195" t="inlineStr"/>
       <c r="AP195" t="n">
         <v>4.25</v>
       </c>
@@ -25902,6 +23323,79 @@
       <c r="AR195" t="inlineStr">
         <is>
           <t>COMPLETED</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AS2:AS195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region XII/Region XII_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS195"/>
+  <dimension ref="A1:AU195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -773,7 +783,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -887,7 +902,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1001,7 +1021,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1115,7 +1140,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1229,7 +1259,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1343,7 +1378,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1457,7 +1497,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1571,7 +1616,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1685,7 +1735,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1799,7 +1854,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1913,7 +1973,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2027,7 +2092,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2141,7 +2211,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2255,7 +2330,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2369,7 +2449,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2483,7 +2568,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2597,7 +2687,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2711,7 +2806,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2825,7 +2925,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2939,7 +3044,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3053,7 +3163,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3167,7 +3282,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3281,7 +3401,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3395,7 +3520,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3509,7 +3639,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3623,7 +3758,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3737,7 +3877,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3851,7 +3996,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3965,7 +4115,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4079,7 +4234,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4193,7 +4353,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4307,7 +4472,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4421,7 +4591,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4535,7 +4710,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4649,7 +4829,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4763,7 +4948,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4877,7 +5067,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4991,7 +5186,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5105,7 +5305,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5219,7 +5424,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5333,7 +5543,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5447,7 +5662,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5561,7 +5781,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5675,7 +5900,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5789,7 +6019,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AS46" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5903,7 +6138,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6017,7 +6257,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6131,7 +6376,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6245,7 +6495,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6359,7 +6614,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6473,7 +6733,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6587,7 +6852,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AS53" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6701,7 +6971,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6815,7 +7090,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6929,7 +7209,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7043,7 +7328,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7157,7 +7447,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7271,7 +7566,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7385,7 +7685,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7499,7 +7804,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7613,7 +7923,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7727,7 +8042,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7841,7 +8161,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7955,7 +8280,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8069,7 +8399,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8183,7 +8518,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AS67" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8297,7 +8637,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AS68" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8411,7 +8756,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AS69" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8525,7 +8875,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AS70" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8639,7 +8994,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AS71" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8753,7 +9113,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8867,7 +9232,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8981,7 +9351,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AS74" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9095,7 +9470,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AS75" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9209,7 +9589,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AS76" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9323,7 +9708,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AS77" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9437,7 +9827,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AS78" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9551,7 +9946,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AS79" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9665,7 +10065,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AS80" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9779,7 +10184,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9893,7 +10303,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AS82" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10007,7 +10422,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AS83" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10121,7 +10541,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AS84" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10235,7 +10660,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10349,7 +10779,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AS86" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10463,7 +10898,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AS87" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10577,7 +11017,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AS88" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10691,7 +11136,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AS89" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10805,7 +11255,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AS90" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10919,7 +11374,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AS91" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11033,7 +11493,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AS92" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11147,7 +11612,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AS93" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11261,7 +11731,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AS94" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11375,7 +11850,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AS95" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11489,7 +11969,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AS96" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11603,7 +12088,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AS97" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11717,7 +12207,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AS98" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11831,7 +12326,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AS99" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11945,7 +12445,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AS100" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12059,7 +12564,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AS101" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12173,7 +12683,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AS102" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12287,7 +12802,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AS103" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12401,7 +12921,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AS104" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12515,7 +13040,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AS105" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12629,7 +13159,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AS106" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12738,7 +13273,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AS107" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT107" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -12852,7 +13392,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AS108" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12961,7 +13506,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AS109" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT109" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -13070,7 +13620,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AS110" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT110" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -13179,7 +13734,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AS111" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT111" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -13288,7 +13848,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AS112" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT112" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -13397,7 +13962,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AS113" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT113" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -13506,7 +14076,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AS114" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT114" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -13615,7 +14190,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AS115" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT115" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -13724,7 +14304,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AS116" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT116" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -13833,7 +14418,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AS117" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT117" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -13942,7 +14532,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AS118" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT118" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -14051,7 +14646,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AS119" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT119" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -14160,7 +14760,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AS120" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT120" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -14269,7 +14874,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AS121" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT121" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -14378,7 +14988,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AS122" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT122" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -14487,7 +15102,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AS123" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT123" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -14596,7 +15216,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AS124" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT124" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -14705,7 +15330,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AS125" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT125" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -14814,7 +15444,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AS126" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT126" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -14923,7 +15558,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AS127" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT127" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -15032,7 +15672,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AS128" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT128" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -15141,7 +15786,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AS129" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT129" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -15250,7 +15900,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AS130" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT130" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -15362,7 +16017,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15499,7 +16154,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15631,7 +16286,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15768,7 +16423,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15880,7 +16535,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16040,7 +16695,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16152,7 +16807,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AT137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16264,7 +16919,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16376,7 +17031,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AT139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16488,7 +17143,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16600,7 +17255,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16712,7 +17367,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16824,7 +17479,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16936,7 +17591,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17048,7 +17703,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17160,7 +17815,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17272,7 +17927,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17384,7 +18039,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17496,7 +18151,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17608,7 +18263,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17720,7 +18375,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17832,7 +18487,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17944,7 +18599,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18056,7 +18711,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18168,7 +18823,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18280,7 +18935,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18425,7 +19080,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18537,7 +19192,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18709,7 +19364,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18881,7 +19536,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19053,7 +19708,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19225,7 +19880,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19354,7 +20009,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19483,7 +20138,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19612,7 +20267,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19736,7 +20391,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19860,7 +20515,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19984,7 +20639,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20108,7 +20763,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20227,7 +20882,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20346,7 +21001,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20465,7 +21120,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20584,7 +21239,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20703,7 +21358,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20822,7 +21477,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20964,7 +21619,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21106,7 +21761,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21268,7 +21923,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21430,7 +22085,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21597,7 +22252,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21716,7 +22371,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21837,6 +22492,11 @@
       </c>
       <c r="AR182" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT182" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -21954,7 +22614,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22065,6 +22725,11 @@
       </c>
       <c r="AR184" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT184" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22172,7 +22837,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22281,7 +22946,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22392,6 +23057,11 @@
       </c>
       <c r="AR187" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT187" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22499,7 +23169,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22608,7 +23278,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22717,7 +23387,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22826,7 +23496,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22935,7 +23605,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23044,7 +23714,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AT193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23178,7 +23848,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR194" t="inlineStr">
+      <c r="AT194" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23322,13 +23992,18 @@
       </c>
       <c r="AR195" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
